--- a/rules/rules_states.xlsx
+++ b/rules/rules_states.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Usbtl-serv-pdc1\Users\nmirasol\My Documents\Python\auto-sti-fax\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Usbtl-serv-pdc1\Users\nmirasol\My Documents\Misc\sti-rules\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDA82F6-BE99-425E-B878-D1ACB1E59612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D8268D-7D5F-4445-8638-9B4851C7194B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-3600" windowWidth="16440" windowHeight="29040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines" sheetId="3" r:id="rId1"/>
     <sheet name="CA" sheetId="6" r:id="rId2"/>
     <sheet name="FL" sheetId="11" r:id="rId3"/>
-    <sheet name="IL" sheetId="1" r:id="rId4"/>
-    <sheet name="NC" sheetId="10" r:id="rId5"/>
-    <sheet name="OR" sheetId="9" r:id="rId6"/>
-    <sheet name="TX" sheetId="7" r:id="rId7"/>
-    <sheet name="UT" sheetId="2" r:id="rId8"/>
-    <sheet name="WA" sheetId="5" r:id="rId9"/>
+    <sheet name="GA" sheetId="12" r:id="rId4"/>
+    <sheet name="IL" sheetId="1" r:id="rId5"/>
+    <sheet name="NC" sheetId="10" r:id="rId6"/>
+    <sheet name="OR" sheetId="9" r:id="rId7"/>
+    <sheet name="TX" sheetId="7" r:id="rId8"/>
+    <sheet name="UT" sheetId="2" r:id="rId9"/>
+    <sheet name="WA" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3328" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3338" uniqueCount="822">
   <si>
     <t>sti</t>
   </si>
@@ -2775,6 +2776,9 @@
   </si>
   <si>
     <t>SYPH</t>
+  </si>
+  <si>
+    <t>nmirasol@usbiotek.com</t>
   </si>
 </sst>
 </file>
@@ -3434,6 +3438,270 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090E2328-4252-44D7-8F9F-0FEE326AAA47}">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>242</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{89BAC0A9-74CB-4187-AD28-842BB73473FF}"/>
+    <hyperlink ref="G7" r:id="rId2" xr:uid="{F31759F6-49D6-4041-B8D6-8164FEB39454}"/>
+    <hyperlink ref="G9" r:id="rId3" xr:uid="{7FC71B66-9A8A-4681-B6EC-1E7E9548D22D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABC6B03-4CD4-438B-B773-90767DEF6D87}">
   <dimension ref="A1:G59"/>
@@ -4474,6 +4742,62 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0120148-02B5-41A0-B534-E70620D50CDF}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{4C101D73-B6D5-44CC-BED4-E424FF350EC7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G103"/>
   <sheetViews>
@@ -5639,7 +5963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50632D9-A68B-45AC-B2E8-6A44F2626A3B}">
   <dimension ref="A1:G101"/>
   <sheetViews>
@@ -6561,7 +6885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3485B542-A7AE-49A8-9570-1F6A41EC410A}">
   <dimension ref="A1:G37"/>
   <sheetViews>
@@ -7006,11 +7330,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8813E460-3269-433D-A176-13509591D858}">
   <dimension ref="A1:G769"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A517" workbookViewId="0">
+    <sheetView topLeftCell="A517" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -15499,12 +15823,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF60086F-4E23-4552-812A-D6F349AB4AAA}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15576,268 +15900,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090E2328-4252-44D7-8F9F-0FEE326AAA47}">
-  <dimension ref="A1:G40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>239</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>241</v>
-      </c>
-      <c r="G8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>242</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>269</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" xr:uid="{89BAC0A9-74CB-4187-AD28-842BB73473FF}"/>
-    <hyperlink ref="G7" r:id="rId2" xr:uid="{F31759F6-49D6-4041-B8D6-8164FEB39454}"/>
-    <hyperlink ref="G9" r:id="rId3" xr:uid="{7FC71B66-9A8A-4681-B6EC-1E7E9548D22D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/rules/rules_states.xlsx
+++ b/rules/rules_states.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Usbtl-serv-pdc1\Users\nmirasol\My Documents\Misc\sti-rules\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\usbtl-serv-pdc1\Users\nmirasol\My Documents\Misc\sti-rules\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D8268D-7D5F-4445-8638-9B4851C7194B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0792F0-DAAF-41AE-9CDE-0C62BF35E263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="-3600" windowWidth="16440" windowHeight="29040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3338" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="824">
   <si>
     <t>sti</t>
   </si>
@@ -2779,6 +2779,12 @@
   </si>
   <si>
     <t>nmirasol@usbiotek.com</t>
+  </si>
+  <si>
+    <t>GONO, CHLA, HEPB, HEPC</t>
+  </si>
+  <si>
+    <t>GA_HIV_CDC.pdf</t>
   </si>
 </sst>
 </file>
@@ -4743,15 +4749,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0120148-02B5-41A0-B534-E70620D50CDF}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4780,13 +4788,38 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>822</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>821</v>
       </c>
       <c r="E2" t="s">
         <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>820</v>
+      </c>
+      <c r="C3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" t="s">
+        <v>823</v>
       </c>
     </row>
   </sheetData>

--- a/rules/rules_states.xlsx
+++ b/rules/rules_states.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Usbtl-serv-pdc1\Users\nmirasol\My Documents\Misc\sti-rules\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA580B55-37E0-45F0-8969-80D39D2C197E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461F6F07-CA8C-4502-BF81-01E8FC54FAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="3555" windowWidth="15300" windowHeight="10020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines" sheetId="3" r:id="rId1"/>
@@ -19,10 +19,12 @@
     <sheet name="GA" sheetId="12" r:id="rId4"/>
     <sheet name="NC" sheetId="10" r:id="rId5"/>
     <sheet name="IL" sheetId="1" r:id="rId6"/>
-    <sheet name="OR" sheetId="9" r:id="rId7"/>
-    <sheet name="TX" sheetId="7" r:id="rId8"/>
-    <sheet name="UT" sheetId="2" r:id="rId9"/>
-    <sheet name="WA" sheetId="5" r:id="rId10"/>
+    <sheet name="MN" sheetId="13" r:id="rId7"/>
+    <sheet name="OR" sheetId="9" r:id="rId8"/>
+    <sheet name="TX" sheetId="7" r:id="rId9"/>
+    <sheet name="UT" sheetId="2" r:id="rId10"/>
+    <sheet name="WA" sheetId="5" r:id="rId11"/>
+    <sheet name="WI" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="824">
   <si>
     <t>sti</t>
   </si>
@@ -3451,6 +3453,85 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF60086F-4E23-4552-812A-D6F349AB4AAA}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+      <c r="G3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="G4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A7623CC5-2DD4-4C82-8E27-E943B9C67183}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090E2328-4252-44D7-8F9F-0FEE326AAA47}">
   <dimension ref="A1:G40"/>
   <sheetViews>
@@ -3709,6 +3790,58 @@
     <hyperlink ref="G5" r:id="rId1" xr:uid="{89BAC0A9-74CB-4187-AD28-842BB73473FF}"/>
     <hyperlink ref="G7" r:id="rId2" xr:uid="{F31759F6-49D6-4041-B8D6-8164FEB39454}"/>
     <hyperlink ref="G9" r:id="rId3" xr:uid="{7FC71B66-9A8A-4681-B6EC-1E7E9548D22D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E0E31F-B62D-4680-B1F4-A49EBE3A95E3}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="E2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6974CFCC-386B-41C5-B3C9-A434BC4CA775}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4758,7 +4891,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5762,7 +5895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
@@ -6926,6 +7059,62 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3763F8-F71B-49F5-BE31-3104EC77150F}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="E2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{90A0AEB9-8A49-4607-B016-EB131DB3BD3F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3485B542-A7AE-49A8-9570-1F6A41EC410A}">
   <dimension ref="A1:G37"/>
   <sheetViews>
@@ -7370,7 +7559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8813E460-3269-433D-A176-13509591D858}">
   <dimension ref="A1:G769"/>
   <sheetViews>
@@ -15861,83 +16050,4 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF60086F-4E23-4552-812A-D6F349AB4AAA}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="G3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-      <c r="G4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{A7623CC5-2DD4-4C82-8E27-E943B9C67183}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/rules/rules_states.xlsx
+++ b/rules/rules_states.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Usbtl-serv-pdc1\Users\nmirasol\My Documents\Misc\sti-rules\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461F6F07-CA8C-4502-BF81-01E8FC54FAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC5CD02-C124-4379-83D2-8D8B98510F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369" uniqueCount="826">
   <si>
     <t>sti</t>
   </si>
@@ -2787,6 +2787,12 @@
   </si>
   <si>
     <t>618-251-9482</t>
+  </si>
+  <si>
+    <t>HEPB, HEPC</t>
+  </si>
+  <si>
+    <t>MN_HEP_template.pdf</t>
   </si>
 </sst>
 </file>
@@ -3799,7 +3805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E0E31F-B62D-4680-B1F4-A49EBE3A95E3}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
@@ -7060,16 +7066,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3763F8-F71B-49F5-BE31-3104EC77150F}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -7097,18 +7104,33 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>620</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>819</v>
       </c>
       <c r="E2" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>824</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="D3" t="s">
+        <v>825</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{90A0AEB9-8A49-4607-B016-EB131DB3BD3F}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{E834CD15-DC0F-4052-A954-0DB3D6CC2140}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rules/rules_states.xlsx
+++ b/rules/rules_states.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Usbtl-serv-pdc1\Users\nmirasol\My Documents\Misc\sti-rules\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC5CD02-C124-4379-83D2-8D8B98510F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4CC7CD-FC3A-49C7-B201-7C039C15235F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines" sheetId="3" r:id="rId1"/>
@@ -3805,11 +3805,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E0E31F-B62D-4680-B1F4-A49EBE3A95E3}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -3838,17 +3841,14 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>819</v>
+      <c r="C2" t="s">
+        <v>215</v>
       </c>
       <c r="E2" t="s">
         <v>292</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6974CFCC-386B-41C5-B3C9-A434BC4CA775}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7068,8 +7068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3763F8-F71B-49F5-BE31-3104EC77150F}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7106,8 +7106,8 @@
       <c r="B2" t="s">
         <v>620</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>819</v>
+      <c r="C2" t="s">
+        <v>215</v>
       </c>
       <c r="E2" t="s">
         <v>292</v>
@@ -7120,18 +7120,14 @@
       <c r="B3" t="s">
         <v>824</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>819</v>
+      <c r="C3" t="s">
+        <v>215</v>
       </c>
       <c r="D3" t="s">
         <v>825</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{90A0AEB9-8A49-4607-B016-EB131DB3BD3F}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{E834CD15-DC0F-4052-A954-0DB3D6CC2140}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/rules/rules_states.xlsx
+++ b/rules/rules_states.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Usbtl-serv-pdc1\Users\nmirasol\My Documents\Misc\sti-rules\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\usbtl-serv-pdc1\Users\nmirasol\My Documents\Misc\sti-rules\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4CC7CD-FC3A-49C7-B201-7C039C15235F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1948DBD-89B0-4D43-93CE-C8E5CE19D365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369" uniqueCount="827">
   <si>
     <t>sti</t>
   </si>
@@ -2794,12 +2794,15 @@
   <si>
     <t>MN_HEP_template.pdf</t>
   </si>
+  <si>
+    <t>806-775-3184</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2850,6 +2853,12 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2872,13 +2881,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3805,8 +3815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E0E31F-B62D-4680-B1F4-A49EBE3A95E3}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7581,8 +7591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8813E460-3269-433D-A176-13509591D858}">
   <dimension ref="A1:G769"/>
   <sheetViews>
-    <sheetView topLeftCell="A734" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A653" workbookViewId="0">
+      <selection activeCell="E672" sqref="E672"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14821,7 +14831,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="4" t="s">
         <v>733</v>
       </c>
@@ -14832,7 +14842,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="4" t="s">
         <v>734</v>
       </c>
@@ -14843,7 +14853,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="4" t="s">
         <v>97</v>
       </c>
@@ -14854,7 +14864,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="4" t="s">
         <v>318</v>
       </c>
@@ -14865,7 +14875,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="4" t="s">
         <v>533</v>
       </c>
@@ -14876,7 +14886,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="4" t="s">
         <v>735</v>
       </c>
@@ -14887,7 +14897,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="4" t="s">
         <v>736</v>
       </c>
@@ -14898,7 +14908,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="4" t="s">
         <v>737</v>
       </c>
@@ -14909,7 +14919,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="4" t="s">
         <v>319</v>
       </c>
@@ -14920,7 +14930,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A666" s="4" t="s">
         <v>738</v>
       </c>
@@ -14930,8 +14940,9 @@
       <c r="C666" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D666" s="6"/>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="4" t="s">
         <v>739</v>
       </c>
@@ -14939,10 +14950,10 @@
         <v>205</v>
       </c>
       <c r="C667" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="4" t="s">
         <v>740</v>
       </c>
@@ -14953,7 +14964,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="4" t="s">
         <v>741</v>
       </c>
@@ -14964,7 +14975,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" s="4" t="s">
         <v>742</v>
       </c>
@@ -14975,7 +14986,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" s="4" t="s">
         <v>744</v>
       </c>
@@ -14986,7 +14997,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="4" t="s">
         <v>107</v>
       </c>
@@ -16067,5 +16078,6 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rules/rules_states.xlsx
+++ b/rules/rules_states.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Usbtl-serv-pdc1\Users\nmirasol\My Documents\Misc\sti-rules\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DDD5A9-AC89-46ED-8A82-4F05A82BD4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2926C6-2FB6-4E73-A46F-E1C2C6FF04AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4455" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4460" uniqueCount="832">
   <si>
     <t>sti</t>
   </si>
@@ -2803,6 +2803,15 @@
   </si>
   <si>
     <t>630-897-8128</t>
+  </si>
+  <si>
+    <t>GONO, CHLA, SYPH</t>
+  </si>
+  <si>
+    <t>HEP</t>
+  </si>
+  <si>
+    <t>LA_HEP_template.pdf</t>
   </si>
 </sst>
 </file>
@@ -17458,16 +17467,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A423D28C-3242-4F17-BAFA-5D15DE2DACDA}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
@@ -17499,12 +17508,29 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>829</v>
       </c>
       <c r="C2" t="s">
         <v>214</v>
       </c>
       <c r="E2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>830</v>
+      </c>
+      <c r="C3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" t="s">
+        <v>831</v>
+      </c>
+      <c r="E3" t="s">
         <v>291</v>
       </c>
     </row>

--- a/rules/rules_states.xlsx
+++ b/rules/rules_states.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Usbtl-serv-pdc1\Users\nmirasol\My Documents\Misc\sti-rules\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2425B047-B1A0-4C1E-9CFB-F54E77FE5202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B73E4C3-7E8A-459C-A290-0B967D9A3CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="14400" windowHeight="11205" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4459" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4459" uniqueCount="830">
   <si>
     <t>sti</t>
   </si>
@@ -2803,9 +2803,6 @@
   </si>
   <si>
     <t>GONO, CHLA, SYPH</t>
-  </si>
-  <si>
-    <t>HEP</t>
   </si>
   <si>
     <t>LA_HEP_template.pdf</t>
@@ -17466,8 +17463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A423D28C-3242-4F17-BAFA-5D15DE2DACDA}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17519,13 +17516,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="C3" t="s">
         <v>214</v>
       </c>
       <c r="D3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E3" t="s">
         <v>291</v>
@@ -17612,7 +17609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50632D9-A68B-45AC-B2E8-6A44F2626A3B}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>

--- a/rules/rules_states.xlsx
+++ b/rules/rules_states.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Usbtl-serv-pdc1\Users\nmirasol\My Documents\Misc\sti-rules\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B73E4C3-7E8A-459C-A290-0B967D9A3CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B702C67-CBFB-4856-9AFE-C8C8C5E1F854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines" sheetId="3" r:id="rId1"/>
-    <sheet name="CA" sheetId="6" r:id="rId2"/>
+    <sheet name="zCA" sheetId="6" r:id="rId2"/>
     <sheet name="FL" sheetId="11" r:id="rId3"/>
     <sheet name="GA" sheetId="12" r:id="rId4"/>
     <sheet name="IL" sheetId="1" r:id="rId5"/>
@@ -14668,7 +14668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABC6B03-4CD4-438B-B773-90767DEF6D87}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -17463,7 +17463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A423D28C-3242-4F17-BAFA-5D15DE2DACDA}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/rules/rules_states.xlsx
+++ b/rules/rules_states.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Usbtl-serv-pdc1\Users\nmirasol\My Documents\Misc\sti-rules\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B702C67-CBFB-4856-9AFE-C8C8C5E1F854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E99314E-8218-419D-9661-22B056F3BDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4459" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4459" uniqueCount="829">
   <si>
     <t>sti</t>
   </si>
@@ -2767,9 +2767,6 @@
   </si>
   <si>
     <t>SYPH</t>
-  </si>
-  <si>
-    <t>nmirasol@usbiotek.com</t>
   </si>
   <si>
     <t>GONO, CHLA, HEPB, HEPC</t>
@@ -3476,7 +3473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8813E460-3269-433D-A176-13509591D858}">
   <dimension ref="A1:G769"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A746" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -3519,7 +3516,7 @@
         <v>619</v>
       </c>
       <c r="E2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3533,7 +3530,7 @@
         <v>621</v>
       </c>
       <c r="E3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3547,7 +3544,7 @@
         <v>619</v>
       </c>
       <c r="E4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3561,7 +3558,7 @@
         <v>623</v>
       </c>
       <c r="E5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3575,7 +3572,7 @@
         <v>625</v>
       </c>
       <c r="E6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3589,7 +3586,7 @@
         <v>627</v>
       </c>
       <c r="E7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3603,7 +3600,7 @@
         <v>629</v>
       </c>
       <c r="E8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3617,7 +3614,7 @@
         <v>327</v>
       </c>
       <c r="E9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3631,7 +3628,7 @@
         <v>627</v>
       </c>
       <c r="E10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3645,7 +3642,7 @@
         <v>629</v>
       </c>
       <c r="E11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3659,7 +3656,7 @@
         <v>633</v>
       </c>
       <c r="E12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3673,7 +3670,7 @@
         <v>625</v>
       </c>
       <c r="E13" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3687,7 +3684,7 @@
         <v>636</v>
       </c>
       <c r="E14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3701,7 +3698,7 @@
         <v>633</v>
       </c>
       <c r="E15" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3715,7 +3712,7 @@
         <v>637</v>
       </c>
       <c r="E16" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3729,7 +3726,7 @@
         <v>633</v>
       </c>
       <c r="E17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3743,7 +3740,7 @@
         <v>621</v>
       </c>
       <c r="E18" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3757,7 +3754,7 @@
         <v>633</v>
       </c>
       <c r="E19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3771,7 +3768,7 @@
         <v>619</v>
       </c>
       <c r="E20" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3785,7 +3782,7 @@
         <v>641</v>
       </c>
       <c r="E21" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3799,7 +3796,7 @@
         <v>633</v>
       </c>
       <c r="E22" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3813,7 +3810,7 @@
         <v>621</v>
       </c>
       <c r="E23" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3827,7 +3824,7 @@
         <v>627</v>
       </c>
       <c r="E24" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3841,7 +3838,7 @@
         <v>636</v>
       </c>
       <c r="E25" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3855,7 +3852,7 @@
         <v>625</v>
       </c>
       <c r="E26" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3869,7 +3866,7 @@
         <v>633</v>
       </c>
       <c r="E27" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3883,7 +3880,7 @@
         <v>633</v>
       </c>
       <c r="E28" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3897,7 +3894,7 @@
         <v>633</v>
       </c>
       <c r="E29" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3911,7 +3908,7 @@
         <v>629</v>
       </c>
       <c r="E30" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3925,7 +3922,7 @@
         <v>625</v>
       </c>
       <c r="E31" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3939,7 +3936,7 @@
         <v>627</v>
       </c>
       <c r="E32" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3953,7 +3950,7 @@
         <v>619</v>
       </c>
       <c r="E33" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3967,7 +3964,7 @@
         <v>627</v>
       </c>
       <c r="E34" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3981,7 +3978,7 @@
         <v>619</v>
       </c>
       <c r="E35" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3995,7 +3992,7 @@
         <v>627</v>
       </c>
       <c r="E36" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4009,7 +4006,7 @@
         <v>641</v>
       </c>
       <c r="E37" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4023,7 +4020,7 @@
         <v>619</v>
       </c>
       <c r="E38" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4037,7 +4034,7 @@
         <v>627</v>
       </c>
       <c r="E39" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4051,7 +4048,7 @@
         <v>625</v>
       </c>
       <c r="E40" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -4065,7 +4062,7 @@
         <v>627</v>
       </c>
       <c r="E41" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4079,7 +4076,7 @@
         <v>621</v>
       </c>
       <c r="E42" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -4093,7 +4090,7 @@
         <v>625</v>
       </c>
       <c r="E43" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4107,7 +4104,7 @@
         <v>625</v>
       </c>
       <c r="E44" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -4121,7 +4118,7 @@
         <v>627</v>
       </c>
       <c r="E45" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4135,7 +4132,7 @@
         <v>327</v>
       </c>
       <c r="E46" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -4149,7 +4146,7 @@
         <v>629</v>
       </c>
       <c r="E47" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4163,7 +4160,7 @@
         <v>625</v>
       </c>
       <c r="E48" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -4177,7 +4174,7 @@
         <v>621</v>
       </c>
       <c r="E49" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4191,7 +4188,7 @@
         <v>625</v>
       </c>
       <c r="E50" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4205,7 +4202,7 @@
         <v>633</v>
       </c>
       <c r="E51" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4219,7 +4216,7 @@
         <v>625</v>
       </c>
       <c r="E52" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -4233,7 +4230,7 @@
         <v>621</v>
       </c>
       <c r="E53" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -4247,7 +4244,7 @@
         <v>621</v>
       </c>
       <c r="E54" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -4261,7 +4258,7 @@
         <v>627</v>
       </c>
       <c r="E55" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -4275,7 +4272,7 @@
         <v>621</v>
       </c>
       <c r="E56" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -4289,7 +4286,7 @@
         <v>627</v>
       </c>
       <c r="E57" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -4303,7 +4300,7 @@
         <v>625</v>
       </c>
       <c r="E58" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -4317,7 +4314,7 @@
         <v>621</v>
       </c>
       <c r="E59" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -4331,7 +4328,7 @@
         <v>627</v>
       </c>
       <c r="E60" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -4345,7 +4342,7 @@
         <v>619</v>
       </c>
       <c r="E61" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -4359,7 +4356,7 @@
         <v>625</v>
       </c>
       <c r="E62" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -4373,7 +4370,7 @@
         <v>629</v>
       </c>
       <c r="E63" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -4387,7 +4384,7 @@
         <v>627</v>
       </c>
       <c r="E64" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -4401,7 +4398,7 @@
         <v>629</v>
       </c>
       <c r="E65" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -4415,7 +4412,7 @@
         <v>627</v>
       </c>
       <c r="E66" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -4429,7 +4426,7 @@
         <v>627</v>
       </c>
       <c r="E67" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -4443,7 +4440,7 @@
         <v>625</v>
       </c>
       <c r="E68" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -4457,7 +4454,7 @@
         <v>621</v>
       </c>
       <c r="E69" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -4471,7 +4468,7 @@
         <v>629</v>
       </c>
       <c r="E70" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -4485,7 +4482,7 @@
         <v>625</v>
       </c>
       <c r="E71" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -4499,7 +4496,7 @@
         <v>678</v>
       </c>
       <c r="E72" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -4513,7 +4510,7 @@
         <v>625</v>
       </c>
       <c r="E73" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -4527,7 +4524,7 @@
         <v>633</v>
       </c>
       <c r="E74" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -4541,7 +4538,7 @@
         <v>625</v>
       </c>
       <c r="E75" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -4555,7 +4552,7 @@
         <v>633</v>
       </c>
       <c r="E76" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -4569,7 +4566,7 @@
         <v>625</v>
       </c>
       <c r="E77" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -4583,7 +4580,7 @@
         <v>627</v>
       </c>
       <c r="E78" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -4597,7 +4594,7 @@
         <v>625</v>
       </c>
       <c r="E79" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -4611,7 +4608,7 @@
         <v>327</v>
       </c>
       <c r="E80" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -4625,7 +4622,7 @@
         <v>619</v>
       </c>
       <c r="E81" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -4639,7 +4636,7 @@
         <v>633</v>
       </c>
       <c r="E82" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -4653,7 +4650,7 @@
         <v>629</v>
       </c>
       <c r="E83" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -4667,7 +4664,7 @@
         <v>621</v>
       </c>
       <c r="E84" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -4681,7 +4678,7 @@
         <v>641</v>
       </c>
       <c r="E85" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -4695,7 +4692,7 @@
         <v>627</v>
       </c>
       <c r="E86" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -4709,7 +4706,7 @@
         <v>629</v>
       </c>
       <c r="E87" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -4723,7 +4720,7 @@
         <v>621</v>
       </c>
       <c r="E88" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -4737,7 +4734,7 @@
         <v>629</v>
       </c>
       <c r="E89" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -4751,7 +4748,7 @@
         <v>629</v>
       </c>
       <c r="E90" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -4765,7 +4762,7 @@
         <v>627</v>
       </c>
       <c r="E91" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -4779,7 +4776,7 @@
         <v>625</v>
       </c>
       <c r="E92" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -4793,7 +4790,7 @@
         <v>619</v>
       </c>
       <c r="E93" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4807,7 +4804,7 @@
         <v>633</v>
       </c>
       <c r="E94" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4821,7 +4818,7 @@
         <v>629</v>
       </c>
       <c r="E95" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -4835,7 +4832,7 @@
         <v>627</v>
       </c>
       <c r="E96" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -4849,7 +4846,7 @@
         <v>627</v>
       </c>
       <c r="E97" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -4863,7 +4860,7 @@
         <v>633</v>
       </c>
       <c r="E98" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -4877,7 +4874,7 @@
         <v>627</v>
       </c>
       <c r="E99" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -4891,7 +4888,7 @@
         <v>625</v>
       </c>
       <c r="E100" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -4905,7 +4902,7 @@
         <v>327</v>
       </c>
       <c r="E101" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -4919,7 +4916,7 @@
         <v>701</v>
       </c>
       <c r="E102" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -4933,7 +4930,7 @@
         <v>701</v>
       </c>
       <c r="E103" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -4947,7 +4944,7 @@
         <v>619</v>
       </c>
       <c r="E104" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -4961,7 +4958,7 @@
         <v>627</v>
       </c>
       <c r="E105" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -4975,7 +4972,7 @@
         <v>625</v>
       </c>
       <c r="E106" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -4989,7 +4986,7 @@
         <v>633</v>
       </c>
       <c r="E107" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -5003,7 +5000,7 @@
         <v>627</v>
       </c>
       <c r="E108" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -5017,7 +5014,7 @@
         <v>619</v>
       </c>
       <c r="E109" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -5031,7 +5028,7 @@
         <v>627</v>
       </c>
       <c r="E110" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -5045,7 +5042,7 @@
         <v>633</v>
       </c>
       <c r="E111" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -5059,7 +5056,7 @@
         <v>627</v>
       </c>
       <c r="E112" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -5073,7 +5070,7 @@
         <v>625</v>
       </c>
       <c r="E113" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -5087,7 +5084,7 @@
         <v>619</v>
       </c>
       <c r="E114" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -5101,7 +5098,7 @@
         <v>619</v>
       </c>
       <c r="E115" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -5115,7 +5112,7 @@
         <v>621</v>
       </c>
       <c r="E116" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -5129,7 +5126,7 @@
         <v>621</v>
       </c>
       <c r="E117" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -5143,7 +5140,7 @@
         <v>625</v>
       </c>
       <c r="E118" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -5157,7 +5154,7 @@
         <v>627</v>
       </c>
       <c r="E119" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -5171,7 +5168,7 @@
         <v>621</v>
       </c>
       <c r="E120" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -5185,7 +5182,7 @@
         <v>625</v>
       </c>
       <c r="E121" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -5199,7 +5196,7 @@
         <v>629</v>
       </c>
       <c r="E122" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -5213,7 +5210,7 @@
         <v>619</v>
       </c>
       <c r="E123" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -5227,7 +5224,7 @@
         <v>621</v>
       </c>
       <c r="E124" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -5241,7 +5238,7 @@
         <v>327</v>
       </c>
       <c r="E125" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -5255,7 +5252,7 @@
         <v>327</v>
       </c>
       <c r="E126" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -5269,7 +5266,7 @@
         <v>627</v>
       </c>
       <c r="E127" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -5283,7 +5280,7 @@
         <v>636</v>
       </c>
       <c r="E128" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -5297,7 +5294,7 @@
         <v>625</v>
       </c>
       <c r="E129" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -5311,7 +5308,7 @@
         <v>625</v>
       </c>
       <c r="E130" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -5325,7 +5322,7 @@
         <v>629</v>
       </c>
       <c r="E131" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -5339,7 +5336,7 @@
         <v>625</v>
       </c>
       <c r="E132" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -5353,7 +5350,7 @@
         <v>629</v>
       </c>
       <c r="E133" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -5367,7 +5364,7 @@
         <v>627</v>
       </c>
       <c r="E134" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -5381,7 +5378,7 @@
         <v>625</v>
       </c>
       <c r="E135" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -5395,7 +5392,7 @@
         <v>629</v>
       </c>
       <c r="E136" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -5409,7 +5406,7 @@
         <v>621</v>
       </c>
       <c r="E137" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -5423,7 +5420,7 @@
         <v>627</v>
       </c>
       <c r="E138" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -5437,7 +5434,7 @@
         <v>629</v>
       </c>
       <c r="E139" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -5451,7 +5448,7 @@
         <v>623</v>
       </c>
       <c r="E140" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -5465,7 +5462,7 @@
         <v>625</v>
       </c>
       <c r="E141" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -5479,7 +5476,7 @@
         <v>619</v>
       </c>
       <c r="E142" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -5493,7 +5490,7 @@
         <v>627</v>
       </c>
       <c r="E143" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -5507,7 +5504,7 @@
         <v>633</v>
       </c>
       <c r="E144" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -5521,7 +5518,7 @@
         <v>629</v>
       </c>
       <c r="E145" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -5535,7 +5532,7 @@
         <v>629</v>
       </c>
       <c r="E146" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -5549,7 +5546,7 @@
         <v>633</v>
       </c>
       <c r="E147" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -5563,7 +5560,7 @@
         <v>633</v>
       </c>
       <c r="E148" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -5577,7 +5574,7 @@
         <v>327</v>
       </c>
       <c r="E149" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -5591,7 +5588,7 @@
         <v>633</v>
       </c>
       <c r="E150" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -5605,7 +5602,7 @@
         <v>627</v>
       </c>
       <c r="E151" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -5619,7 +5616,7 @@
         <v>636</v>
       </c>
       <c r="E152" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -5633,7 +5630,7 @@
         <v>633</v>
       </c>
       <c r="E153" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -5647,7 +5644,7 @@
         <v>621</v>
       </c>
       <c r="E154" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -5661,7 +5658,7 @@
         <v>627</v>
       </c>
       <c r="E155" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -5675,7 +5672,7 @@
         <v>627</v>
       </c>
       <c r="E156" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -5689,7 +5686,7 @@
         <v>621</v>
       </c>
       <c r="E157" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -5703,7 +5700,7 @@
         <v>741</v>
       </c>
       <c r="E158" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -5717,7 +5714,7 @@
         <v>627</v>
       </c>
       <c r="E159" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -5731,7 +5728,7 @@
         <v>633</v>
       </c>
       <c r="E160" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -5745,7 +5742,7 @@
         <v>619</v>
       </c>
       <c r="E161" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -5759,7 +5756,7 @@
         <v>621</v>
       </c>
       <c r="E162" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -5773,7 +5770,7 @@
         <v>621</v>
       </c>
       <c r="E163" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -5787,7 +5784,7 @@
         <v>327</v>
       </c>
       <c r="E164" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -5801,7 +5798,7 @@
         <v>629</v>
       </c>
       <c r="E165" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -5815,7 +5812,7 @@
         <v>629</v>
       </c>
       <c r="E166" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -5829,7 +5826,7 @@
         <v>621</v>
       </c>
       <c r="E167" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -5843,7 +5840,7 @@
         <v>621</v>
       </c>
       <c r="E168" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -5857,7 +5854,7 @@
         <v>633</v>
       </c>
       <c r="E169" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -5871,7 +5868,7 @@
         <v>633</v>
       </c>
       <c r="E170" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -5885,7 +5882,7 @@
         <v>625</v>
       </c>
       <c r="E171" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -5899,7 +5896,7 @@
         <v>625</v>
       </c>
       <c r="E172" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -5913,7 +5910,7 @@
         <v>327</v>
       </c>
       <c r="E173" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -5927,7 +5924,7 @@
         <v>627</v>
       </c>
       <c r="E174" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -5941,7 +5938,7 @@
         <v>619</v>
       </c>
       <c r="E175" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -5955,7 +5952,7 @@
         <v>627</v>
       </c>
       <c r="E176" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -5969,7 +5966,7 @@
         <v>619</v>
       </c>
       <c r="E177" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -5983,7 +5980,7 @@
         <v>625</v>
       </c>
       <c r="E178" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -5997,7 +5994,7 @@
         <v>619</v>
       </c>
       <c r="E179" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -6011,7 +6008,7 @@
         <v>625</v>
       </c>
       <c r="E180" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -6025,7 +6022,7 @@
         <v>623</v>
       </c>
       <c r="E181" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -6039,7 +6036,7 @@
         <v>627</v>
       </c>
       <c r="E182" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -6053,7 +6050,7 @@
         <v>627</v>
       </c>
       <c r="E183" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -6067,7 +6064,7 @@
         <v>327</v>
       </c>
       <c r="E184" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -6081,7 +6078,7 @@
         <v>625</v>
       </c>
       <c r="E185" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -6095,7 +6092,7 @@
         <v>619</v>
       </c>
       <c r="E186" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -6109,7 +6106,7 @@
         <v>625</v>
       </c>
       <c r="E187" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -6123,7 +6120,7 @@
         <v>627</v>
       </c>
       <c r="E188" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -6137,7 +6134,7 @@
         <v>621</v>
       </c>
       <c r="E189" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -6151,7 +6148,7 @@
         <v>619</v>
       </c>
       <c r="E190" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -6165,7 +6162,7 @@
         <v>762</v>
       </c>
       <c r="E191" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -6179,7 +6176,7 @@
         <v>621</v>
       </c>
       <c r="E192" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -6193,7 +6190,7 @@
         <v>619</v>
       </c>
       <c r="E193" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -6207,7 +6204,7 @@
         <v>762</v>
       </c>
       <c r="E194" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -6221,7 +6218,7 @@
         <v>621</v>
       </c>
       <c r="E195" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -6235,7 +6232,7 @@
         <v>629</v>
       </c>
       <c r="E196" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -6249,7 +6246,7 @@
         <v>619</v>
       </c>
       <c r="E197" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -6263,7 +6260,7 @@
         <v>621</v>
       </c>
       <c r="E198" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -6277,7 +6274,7 @@
         <v>623</v>
       </c>
       <c r="E199" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -6291,7 +6288,7 @@
         <v>627</v>
       </c>
       <c r="E200" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -6305,7 +6302,7 @@
         <v>633</v>
       </c>
       <c r="E201" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -6319,7 +6316,7 @@
         <v>625</v>
       </c>
       <c r="E202" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -6333,7 +6330,7 @@
         <v>625</v>
       </c>
       <c r="E203" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -6347,7 +6344,7 @@
         <v>619</v>
       </c>
       <c r="E204" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -6361,7 +6358,7 @@
         <v>619</v>
       </c>
       <c r="E205" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -6375,7 +6372,7 @@
         <v>619</v>
       </c>
       <c r="E206" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -6389,7 +6386,7 @@
         <v>619</v>
       </c>
       <c r="E207" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -6403,7 +6400,7 @@
         <v>623</v>
       </c>
       <c r="E208" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -6417,7 +6414,7 @@
         <v>633</v>
       </c>
       <c r="E209" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -6431,7 +6428,7 @@
         <v>621</v>
       </c>
       <c r="E210" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -6445,7 +6442,7 @@
         <v>625</v>
       </c>
       <c r="E211" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -6459,7 +6456,7 @@
         <v>625</v>
       </c>
       <c r="E212" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -6473,7 +6470,7 @@
         <v>619</v>
       </c>
       <c r="E213" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -6487,7 +6484,7 @@
         <v>627</v>
       </c>
       <c r="E214" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -6501,7 +6498,7 @@
         <v>619</v>
       </c>
       <c r="E215" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -6515,7 +6512,7 @@
         <v>625</v>
       </c>
       <c r="E216" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -6529,7 +6526,7 @@
         <v>627</v>
       </c>
       <c r="E217" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -6543,7 +6540,7 @@
         <v>625</v>
       </c>
       <c r="E218" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -6557,7 +6554,7 @@
         <v>621</v>
       </c>
       <c r="E219" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -6571,7 +6568,7 @@
         <v>625</v>
       </c>
       <c r="E220" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -6585,7 +6582,7 @@
         <v>621</v>
       </c>
       <c r="E221" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -6599,7 +6596,7 @@
         <v>627</v>
       </c>
       <c r="E222" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -6613,7 +6610,7 @@
         <v>337</v>
       </c>
       <c r="E223" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -6627,7 +6624,7 @@
         <v>625</v>
       </c>
       <c r="E224" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -6641,7 +6638,7 @@
         <v>621</v>
       </c>
       <c r="E225" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -6655,7 +6652,7 @@
         <v>627</v>
       </c>
       <c r="E226" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -6669,7 +6666,7 @@
         <v>625</v>
       </c>
       <c r="E227" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -6683,7 +6680,7 @@
         <v>619</v>
       </c>
       <c r="E228" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -6697,7 +6694,7 @@
         <v>621</v>
       </c>
       <c r="E229" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -6711,7 +6708,7 @@
         <v>793</v>
       </c>
       <c r="E230" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -6725,7 +6722,7 @@
         <v>619</v>
       </c>
       <c r="E231" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -6739,7 +6736,7 @@
         <v>619</v>
       </c>
       <c r="E232" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -6753,7 +6750,7 @@
         <v>619</v>
       </c>
       <c r="E233" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -6767,7 +6764,7 @@
         <v>621</v>
       </c>
       <c r="E234" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -6781,7 +6778,7 @@
         <v>629</v>
       </c>
       <c r="E235" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -6795,7 +6792,7 @@
         <v>629</v>
       </c>
       <c r="E236" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -6809,7 +6806,7 @@
         <v>619</v>
       </c>
       <c r="E237" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -6823,7 +6820,7 @@
         <v>629</v>
       </c>
       <c r="E238" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -6837,7 +6834,7 @@
         <v>327</v>
       </c>
       <c r="E239" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -6851,7 +6848,7 @@
         <v>327</v>
       </c>
       <c r="E240" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -6865,7 +6862,7 @@
         <v>621</v>
       </c>
       <c r="E241" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -6879,7 +6876,7 @@
         <v>633</v>
       </c>
       <c r="E242" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -6893,7 +6890,7 @@
         <v>627</v>
       </c>
       <c r="E243" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -6907,7 +6904,7 @@
         <v>327</v>
       </c>
       <c r="E244" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -6921,7 +6918,7 @@
         <v>627</v>
       </c>
       <c r="E245" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -6935,7 +6932,7 @@
         <v>625</v>
       </c>
       <c r="E246" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -6949,7 +6946,7 @@
         <v>625</v>
       </c>
       <c r="E247" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -6963,7 +6960,7 @@
         <v>627</v>
       </c>
       <c r="E248" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -6977,7 +6974,7 @@
         <v>633</v>
       </c>
       <c r="E249" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -6991,7 +6988,7 @@
         <v>629</v>
       </c>
       <c r="E250" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -7005,7 +7002,7 @@
         <v>621</v>
       </c>
       <c r="E251" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -7019,7 +7016,7 @@
         <v>625</v>
       </c>
       <c r="E252" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -7033,7 +7030,7 @@
         <v>619</v>
       </c>
       <c r="E253" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -7047,7 +7044,7 @@
         <v>627</v>
       </c>
       <c r="E254" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -7061,7 +7058,7 @@
         <v>625</v>
       </c>
       <c r="E255" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -7075,7 +7072,7 @@
         <v>627</v>
       </c>
       <c r="E256" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -7089,7 +7086,7 @@
         <v>629</v>
       </c>
       <c r="E257" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -7103,7 +7100,7 @@
         <v>619</v>
       </c>
       <c r="E258" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -7117,7 +7114,7 @@
         <v>621</v>
       </c>
       <c r="E259" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -7131,7 +7128,7 @@
         <v>619</v>
       </c>
       <c r="E260" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -7145,7 +7142,7 @@
         <v>623</v>
       </c>
       <c r="E261" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -7159,7 +7156,7 @@
         <v>625</v>
       </c>
       <c r="E262" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -7173,7 +7170,7 @@
         <v>627</v>
       </c>
       <c r="E263" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -7187,7 +7184,7 @@
         <v>629</v>
       </c>
       <c r="E264" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -7201,7 +7198,7 @@
         <v>327</v>
       </c>
       <c r="E265" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -7215,7 +7212,7 @@
         <v>627</v>
       </c>
       <c r="E266" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -7229,7 +7226,7 @@
         <v>629</v>
       </c>
       <c r="E267" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -7243,7 +7240,7 @@
         <v>633</v>
       </c>
       <c r="E268" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -7257,7 +7254,7 @@
         <v>625</v>
       </c>
       <c r="E269" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -7271,7 +7268,7 @@
         <v>636</v>
       </c>
       <c r="E270" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -7285,7 +7282,7 @@
         <v>633</v>
       </c>
       <c r="E271" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -7299,7 +7296,7 @@
         <v>637</v>
       </c>
       <c r="E272" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -7313,7 +7310,7 @@
         <v>633</v>
       </c>
       <c r="E273" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -7327,7 +7324,7 @@
         <v>621</v>
       </c>
       <c r="E274" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -7341,7 +7338,7 @@
         <v>633</v>
       </c>
       <c r="E275" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -7355,7 +7352,7 @@
         <v>619</v>
       </c>
       <c r="E276" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -7369,7 +7366,7 @@
         <v>641</v>
       </c>
       <c r="E277" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -7383,7 +7380,7 @@
         <v>633</v>
       </c>
       <c r="E278" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -7397,7 +7394,7 @@
         <v>621</v>
       </c>
       <c r="E279" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -7411,7 +7408,7 @@
         <v>627</v>
       </c>
       <c r="E280" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -7425,7 +7422,7 @@
         <v>636</v>
       </c>
       <c r="E281" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -7439,7 +7436,7 @@
         <v>625</v>
       </c>
       <c r="E282" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -7453,7 +7450,7 @@
         <v>633</v>
       </c>
       <c r="E283" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -7467,7 +7464,7 @@
         <v>633</v>
       </c>
       <c r="E284" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -7481,7 +7478,7 @@
         <v>633</v>
       </c>
       <c r="E285" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -7495,7 +7492,7 @@
         <v>629</v>
       </c>
       <c r="E286" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -7509,7 +7506,7 @@
         <v>625</v>
       </c>
       <c r="E287" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -7523,7 +7520,7 @@
         <v>627</v>
       </c>
       <c r="E288" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -7537,7 +7534,7 @@
         <v>619</v>
       </c>
       <c r="E289" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -7551,7 +7548,7 @@
         <v>627</v>
       </c>
       <c r="E290" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -7565,7 +7562,7 @@
         <v>619</v>
       </c>
       <c r="E291" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -7579,7 +7576,7 @@
         <v>627</v>
       </c>
       <c r="E292" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -7593,7 +7590,7 @@
         <v>641</v>
       </c>
       <c r="E293" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -7607,7 +7604,7 @@
         <v>619</v>
       </c>
       <c r="E294" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -7621,7 +7618,7 @@
         <v>627</v>
       </c>
       <c r="E295" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -7635,7 +7632,7 @@
         <v>625</v>
       </c>
       <c r="E296" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -7649,7 +7646,7 @@
         <v>627</v>
       </c>
       <c r="E297" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -7663,7 +7660,7 @@
         <v>621</v>
       </c>
       <c r="E298" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -7677,7 +7674,7 @@
         <v>625</v>
       </c>
       <c r="E299" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -7691,7 +7688,7 @@
         <v>625</v>
       </c>
       <c r="E300" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -7705,7 +7702,7 @@
         <v>627</v>
       </c>
       <c r="E301" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -7719,7 +7716,7 @@
         <v>327</v>
       </c>
       <c r="E302" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -7733,7 +7730,7 @@
         <v>629</v>
       </c>
       <c r="E303" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -7747,7 +7744,7 @@
         <v>625</v>
       </c>
       <c r="E304" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -7761,7 +7758,7 @@
         <v>621</v>
       </c>
       <c r="E305" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -7775,7 +7772,7 @@
         <v>625</v>
       </c>
       <c r="E306" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -7789,7 +7786,7 @@
         <v>633</v>
       </c>
       <c r="E307" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -7803,7 +7800,7 @@
         <v>625</v>
       </c>
       <c r="E308" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -7817,7 +7814,7 @@
         <v>621</v>
       </c>
       <c r="E309" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -7831,7 +7828,7 @@
         <v>621</v>
       </c>
       <c r="E310" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -7845,7 +7842,7 @@
         <v>627</v>
       </c>
       <c r="E311" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -7859,7 +7856,7 @@
         <v>621</v>
       </c>
       <c r="E312" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -7873,7 +7870,7 @@
         <v>627</v>
       </c>
       <c r="E313" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -7887,7 +7884,7 @@
         <v>625</v>
       </c>
       <c r="E314" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -7901,7 +7898,7 @@
         <v>621</v>
       </c>
       <c r="E315" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -7915,7 +7912,7 @@
         <v>627</v>
       </c>
       <c r="E316" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -7929,7 +7926,7 @@
         <v>619</v>
       </c>
       <c r="E317" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -7943,7 +7940,7 @@
         <v>625</v>
       </c>
       <c r="E318" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -7957,7 +7954,7 @@
         <v>629</v>
       </c>
       <c r="E319" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -7971,7 +7968,7 @@
         <v>627</v>
       </c>
       <c r="E320" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -7985,7 +7982,7 @@
         <v>629</v>
       </c>
       <c r="E321" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -7999,7 +7996,7 @@
         <v>627</v>
       </c>
       <c r="E322" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -8013,7 +8010,7 @@
         <v>627</v>
       </c>
       <c r="E323" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -8027,7 +8024,7 @@
         <v>625</v>
       </c>
       <c r="E324" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -8041,7 +8038,7 @@
         <v>621</v>
       </c>
       <c r="E325" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -8055,7 +8052,7 @@
         <v>629</v>
       </c>
       <c r="E326" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -8069,7 +8066,7 @@
         <v>625</v>
       </c>
       <c r="E327" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -8083,7 +8080,7 @@
         <v>678</v>
       </c>
       <c r="E328" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -8097,7 +8094,7 @@
         <v>625</v>
       </c>
       <c r="E329" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -8111,7 +8108,7 @@
         <v>633</v>
       </c>
       <c r="E330" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -8125,7 +8122,7 @@
         <v>625</v>
       </c>
       <c r="E331" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -8139,7 +8136,7 @@
         <v>633</v>
       </c>
       <c r="E332" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -8153,7 +8150,7 @@
         <v>625</v>
       </c>
       <c r="E333" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -8167,7 +8164,7 @@
         <v>627</v>
       </c>
       <c r="E334" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -8181,7 +8178,7 @@
         <v>625</v>
       </c>
       <c r="E335" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -8195,7 +8192,7 @@
         <v>327</v>
       </c>
       <c r="E336" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -8209,7 +8206,7 @@
         <v>619</v>
       </c>
       <c r="E337" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -8223,7 +8220,7 @@
         <v>633</v>
       </c>
       <c r="E338" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -8237,7 +8234,7 @@
         <v>629</v>
       </c>
       <c r="E339" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -8251,7 +8248,7 @@
         <v>621</v>
       </c>
       <c r="E340" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -8265,7 +8262,7 @@
         <v>641</v>
       </c>
       <c r="E341" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -8279,7 +8276,7 @@
         <v>627</v>
       </c>
       <c r="E342" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -8293,7 +8290,7 @@
         <v>629</v>
       </c>
       <c r="E343" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -8307,7 +8304,7 @@
         <v>621</v>
       </c>
       <c r="E344" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -8321,7 +8318,7 @@
         <v>629</v>
       </c>
       <c r="E345" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -8335,7 +8332,7 @@
         <v>629</v>
       </c>
       <c r="E346" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -8349,7 +8346,7 @@
         <v>627</v>
       </c>
       <c r="E347" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -8363,7 +8360,7 @@
         <v>625</v>
       </c>
       <c r="E348" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -8377,7 +8374,7 @@
         <v>619</v>
       </c>
       <c r="E349" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -8391,7 +8388,7 @@
         <v>633</v>
       </c>
       <c r="E350" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -8405,7 +8402,7 @@
         <v>629</v>
       </c>
       <c r="E351" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -8419,7 +8416,7 @@
         <v>627</v>
       </c>
       <c r="E352" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -8433,7 +8430,7 @@
         <v>627</v>
       </c>
       <c r="E353" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -8447,7 +8444,7 @@
         <v>633</v>
       </c>
       <c r="E354" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -8461,7 +8458,7 @@
         <v>627</v>
       </c>
       <c r="E355" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -8475,7 +8472,7 @@
         <v>625</v>
       </c>
       <c r="E356" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -8489,7 +8486,7 @@
         <v>327</v>
       </c>
       <c r="E357" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -8503,7 +8500,7 @@
         <v>701</v>
       </c>
       <c r="E358" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -8517,7 +8514,7 @@
         <v>701</v>
       </c>
       <c r="E359" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -8531,7 +8528,7 @@
         <v>619</v>
       </c>
       <c r="E360" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -8545,7 +8542,7 @@
         <v>627</v>
       </c>
       <c r="E361" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -8559,7 +8556,7 @@
         <v>625</v>
       </c>
       <c r="E362" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -8573,7 +8570,7 @@
         <v>633</v>
       </c>
       <c r="E363" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -8587,7 +8584,7 @@
         <v>627</v>
       </c>
       <c r="E364" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -8601,7 +8598,7 @@
         <v>619</v>
       </c>
       <c r="E365" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -8615,7 +8612,7 @@
         <v>627</v>
       </c>
       <c r="E366" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -8629,7 +8626,7 @@
         <v>633</v>
       </c>
       <c r="E367" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -8643,7 +8640,7 @@
         <v>627</v>
       </c>
       <c r="E368" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -8657,7 +8654,7 @@
         <v>625</v>
       </c>
       <c r="E369" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -8671,7 +8668,7 @@
         <v>619</v>
       </c>
       <c r="E370" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -8685,7 +8682,7 @@
         <v>619</v>
       </c>
       <c r="E371" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -8699,7 +8696,7 @@
         <v>621</v>
       </c>
       <c r="E372" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -8713,7 +8710,7 @@
         <v>621</v>
       </c>
       <c r="E373" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -8727,7 +8724,7 @@
         <v>625</v>
       </c>
       <c r="E374" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
@@ -8741,7 +8738,7 @@
         <v>627</v>
       </c>
       <c r="E375" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -8755,7 +8752,7 @@
         <v>621</v>
       </c>
       <c r="E376" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
@@ -8769,7 +8766,7 @@
         <v>625</v>
       </c>
       <c r="E377" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -8783,7 +8780,7 @@
         <v>629</v>
       </c>
       <c r="E378" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -8797,7 +8794,7 @@
         <v>619</v>
       </c>
       <c r="E379" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -8811,7 +8808,7 @@
         <v>621</v>
       </c>
       <c r="E380" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
@@ -8825,7 +8822,7 @@
         <v>327</v>
       </c>
       <c r="E381" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -8839,7 +8836,7 @@
         <v>327</v>
       </c>
       <c r="E382" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
@@ -8853,7 +8850,7 @@
         <v>627</v>
       </c>
       <c r="E383" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
@@ -8867,7 +8864,7 @@
         <v>636</v>
       </c>
       <c r="E384" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
@@ -8881,7 +8878,7 @@
         <v>625</v>
       </c>
       <c r="E385" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
@@ -8895,7 +8892,7 @@
         <v>625</v>
       </c>
       <c r="E386" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
@@ -8909,7 +8906,7 @@
         <v>629</v>
       </c>
       <c r="E387" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -8923,7 +8920,7 @@
         <v>625</v>
       </c>
       <c r="E388" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
@@ -8937,7 +8934,7 @@
         <v>629</v>
       </c>
       <c r="E389" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
@@ -8951,7 +8948,7 @@
         <v>627</v>
       </c>
       <c r="E390" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
@@ -8965,7 +8962,7 @@
         <v>625</v>
       </c>
       <c r="E391" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
@@ -8979,7 +8976,7 @@
         <v>629</v>
       </c>
       <c r="E392" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
@@ -8993,7 +8990,7 @@
         <v>621</v>
       </c>
       <c r="E393" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
@@ -9007,7 +9004,7 @@
         <v>627</v>
       </c>
       <c r="E394" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
@@ -9021,7 +9018,7 @@
         <v>629</v>
       </c>
       <c r="E395" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
@@ -9035,7 +9032,7 @@
         <v>623</v>
       </c>
       <c r="E396" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
@@ -9049,7 +9046,7 @@
         <v>625</v>
       </c>
       <c r="E397" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
@@ -9063,7 +9060,7 @@
         <v>619</v>
       </c>
       <c r="E398" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
@@ -9077,7 +9074,7 @@
         <v>627</v>
       </c>
       <c r="E399" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
@@ -9091,7 +9088,7 @@
         <v>633</v>
       </c>
       <c r="E400" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
@@ -9105,7 +9102,7 @@
         <v>629</v>
       </c>
       <c r="E401" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
@@ -9119,7 +9116,7 @@
         <v>629</v>
       </c>
       <c r="E402" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -9133,7 +9130,7 @@
         <v>633</v>
       </c>
       <c r="E403" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
@@ -9147,7 +9144,7 @@
         <v>633</v>
       </c>
       <c r="E404" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
@@ -9161,7 +9158,7 @@
         <v>327</v>
       </c>
       <c r="E405" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
@@ -9175,7 +9172,7 @@
         <v>633</v>
       </c>
       <c r="E406" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -9189,7 +9186,7 @@
         <v>627</v>
       </c>
       <c r="E407" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
@@ -9203,7 +9200,7 @@
         <v>636</v>
       </c>
       <c r="E408" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
@@ -9217,7 +9214,7 @@
         <v>633</v>
       </c>
       <c r="E409" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -9231,7 +9228,7 @@
         <v>621</v>
       </c>
       <c r="E410" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
@@ -9245,7 +9242,7 @@
         <v>627</v>
       </c>
       <c r="E411" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -9259,7 +9256,7 @@
         <v>627</v>
       </c>
       <c r="E412" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -9273,7 +9270,7 @@
         <v>621</v>
       </c>
       <c r="E413" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
@@ -9287,7 +9284,7 @@
         <v>741</v>
       </c>
       <c r="E414" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
@@ -9301,7 +9298,7 @@
         <v>627</v>
       </c>
       <c r="E415" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
@@ -9315,7 +9312,7 @@
         <v>633</v>
       </c>
       <c r="E416" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
@@ -9329,7 +9326,7 @@
         <v>619</v>
       </c>
       <c r="E417" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
@@ -9343,7 +9340,7 @@
         <v>621</v>
       </c>
       <c r="E418" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
@@ -9357,7 +9354,7 @@
         <v>621</v>
       </c>
       <c r="E419" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
@@ -9371,7 +9368,7 @@
         <v>327</v>
       </c>
       <c r="E420" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -9385,7 +9382,7 @@
         <v>629</v>
       </c>
       <c r="E421" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -9399,7 +9396,7 @@
         <v>629</v>
       </c>
       <c r="E422" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -9413,7 +9410,7 @@
         <v>621</v>
       </c>
       <c r="E423" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
@@ -9427,7 +9424,7 @@
         <v>621</v>
       </c>
       <c r="E424" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
@@ -9441,7 +9438,7 @@
         <v>633</v>
       </c>
       <c r="E425" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
@@ -9455,7 +9452,7 @@
         <v>633</v>
       </c>
       <c r="E426" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -9469,7 +9466,7 @@
         <v>625</v>
       </c>
       <c r="E427" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
@@ -9483,7 +9480,7 @@
         <v>625</v>
       </c>
       <c r="E428" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -9497,7 +9494,7 @@
         <v>327</v>
       </c>
       <c r="E429" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
@@ -9511,7 +9508,7 @@
         <v>627</v>
       </c>
       <c r="E430" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -9525,7 +9522,7 @@
         <v>619</v>
       </c>
       <c r="E431" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
@@ -9539,7 +9536,7 @@
         <v>627</v>
       </c>
       <c r="E432" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
@@ -9553,7 +9550,7 @@
         <v>619</v>
       </c>
       <c r="E433" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
@@ -9567,7 +9564,7 @@
         <v>625</v>
       </c>
       <c r="E434" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
@@ -9581,7 +9578,7 @@
         <v>619</v>
       </c>
       <c r="E435" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
@@ -9595,7 +9592,7 @@
         <v>625</v>
       </c>
       <c r="E436" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -9609,7 +9606,7 @@
         <v>623</v>
       </c>
       <c r="E437" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -9623,7 +9620,7 @@
         <v>627</v>
       </c>
       <c r="E438" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
@@ -9637,7 +9634,7 @@
         <v>627</v>
       </c>
       <c r="E439" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
@@ -9651,7 +9648,7 @@
         <v>327</v>
       </c>
       <c r="E440" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
@@ -9665,7 +9662,7 @@
         <v>625</v>
       </c>
       <c r="E441" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
@@ -9679,7 +9676,7 @@
         <v>619</v>
       </c>
       <c r="E442" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
@@ -9693,7 +9690,7 @@
         <v>625</v>
       </c>
       <c r="E443" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
@@ -9707,7 +9704,7 @@
         <v>627</v>
       </c>
       <c r="E444" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
@@ -9721,7 +9718,7 @@
         <v>621</v>
       </c>
       <c r="E445" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
@@ -9735,7 +9732,7 @@
         <v>619</v>
       </c>
       <c r="E446" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
@@ -9749,7 +9746,7 @@
         <v>762</v>
       </c>
       <c r="E447" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
@@ -9763,7 +9760,7 @@
         <v>621</v>
       </c>
       <c r="E448" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -9777,7 +9774,7 @@
         <v>619</v>
       </c>
       <c r="E449" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -9791,7 +9788,7 @@
         <v>762</v>
       </c>
       <c r="E450" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
@@ -9805,7 +9802,7 @@
         <v>621</v>
       </c>
       <c r="E451" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
@@ -9819,7 +9816,7 @@
         <v>629</v>
       </c>
       <c r="E452" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
@@ -9833,7 +9830,7 @@
         <v>619</v>
       </c>
       <c r="E453" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
@@ -9847,7 +9844,7 @@
         <v>621</v>
       </c>
       <c r="E454" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
@@ -9861,7 +9858,7 @@
         <v>623</v>
       </c>
       <c r="E455" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
@@ -9875,7 +9872,7 @@
         <v>627</v>
       </c>
       <c r="E456" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
@@ -9889,7 +9886,7 @@
         <v>633</v>
       </c>
       <c r="E457" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
@@ -9903,7 +9900,7 @@
         <v>625</v>
       </c>
       <c r="E458" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
@@ -9917,7 +9914,7 @@
         <v>625</v>
       </c>
       <c r="E459" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -9931,7 +9928,7 @@
         <v>619</v>
       </c>
       <c r="E460" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
@@ -9945,7 +9942,7 @@
         <v>619</v>
       </c>
       <c r="E461" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
@@ -9959,7 +9956,7 @@
         <v>619</v>
       </c>
       <c r="E462" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
@@ -9973,7 +9970,7 @@
         <v>619</v>
       </c>
       <c r="E463" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
@@ -9987,7 +9984,7 @@
         <v>623</v>
       </c>
       <c r="E464" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
@@ -10001,7 +9998,7 @@
         <v>633</v>
       </c>
       <c r="E465" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
@@ -10015,7 +10012,7 @@
         <v>621</v>
       </c>
       <c r="E466" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
@@ -10029,7 +10026,7 @@
         <v>625</v>
       </c>
       <c r="E467" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
@@ -10043,7 +10040,7 @@
         <v>625</v>
       </c>
       <c r="E468" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
@@ -10057,7 +10054,7 @@
         <v>619</v>
       </c>
       <c r="E469" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
@@ -10071,7 +10068,7 @@
         <v>627</v>
       </c>
       <c r="E470" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
@@ -10085,7 +10082,7 @@
         <v>619</v>
       </c>
       <c r="E471" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
@@ -10099,7 +10096,7 @@
         <v>625</v>
       </c>
       <c r="E472" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
@@ -10113,7 +10110,7 @@
         <v>627</v>
       </c>
       <c r="E473" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
@@ -10127,7 +10124,7 @@
         <v>625</v>
       </c>
       <c r="E474" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
@@ -10141,7 +10138,7 @@
         <v>621</v>
       </c>
       <c r="E475" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
@@ -10155,7 +10152,7 @@
         <v>625</v>
       </c>
       <c r="E476" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
@@ -10169,7 +10166,7 @@
         <v>621</v>
       </c>
       <c r="E477" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
@@ -10183,7 +10180,7 @@
         <v>627</v>
       </c>
       <c r="E478" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
@@ -10197,7 +10194,7 @@
         <v>337</v>
       </c>
       <c r="E479" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
@@ -10211,7 +10208,7 @@
         <v>625</v>
       </c>
       <c r="E480" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
@@ -10225,7 +10222,7 @@
         <v>621</v>
       </c>
       <c r="E481" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
@@ -10239,7 +10236,7 @@
         <v>627</v>
       </c>
       <c r="E482" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
@@ -10253,7 +10250,7 @@
         <v>625</v>
       </c>
       <c r="E483" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
@@ -10267,7 +10264,7 @@
         <v>619</v>
       </c>
       <c r="E484" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
@@ -10281,7 +10278,7 @@
         <v>621</v>
       </c>
       <c r="E485" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
@@ -10295,7 +10292,7 @@
         <v>793</v>
       </c>
       <c r="E486" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
@@ -10309,7 +10306,7 @@
         <v>619</v>
       </c>
       <c r="E487" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
@@ -10323,7 +10320,7 @@
         <v>619</v>
       </c>
       <c r="E488" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
@@ -10337,7 +10334,7 @@
         <v>619</v>
       </c>
       <c r="E489" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
@@ -10351,7 +10348,7 @@
         <v>621</v>
       </c>
       <c r="E490" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
@@ -10365,7 +10362,7 @@
         <v>629</v>
       </c>
       <c r="E491" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
@@ -10379,7 +10376,7 @@
         <v>629</v>
       </c>
       <c r="E492" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
@@ -10393,7 +10390,7 @@
         <v>619</v>
       </c>
       <c r="E493" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
@@ -10407,7 +10404,7 @@
         <v>629</v>
       </c>
       <c r="E494" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
@@ -10421,7 +10418,7 @@
         <v>327</v>
       </c>
       <c r="E495" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
@@ -10435,7 +10432,7 @@
         <v>327</v>
       </c>
       <c r="E496" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
@@ -10449,7 +10446,7 @@
         <v>621</v>
       </c>
       <c r="E497" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
@@ -10463,7 +10460,7 @@
         <v>633</v>
       </c>
       <c r="E498" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
@@ -10477,7 +10474,7 @@
         <v>627</v>
       </c>
       <c r="E499" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
@@ -10491,7 +10488,7 @@
         <v>327</v>
       </c>
       <c r="E500" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
@@ -10505,7 +10502,7 @@
         <v>627</v>
       </c>
       <c r="E501" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
@@ -10519,7 +10516,7 @@
         <v>625</v>
       </c>
       <c r="E502" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
@@ -10533,7 +10530,7 @@
         <v>625</v>
       </c>
       <c r="E503" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
@@ -10547,7 +10544,7 @@
         <v>627</v>
       </c>
       <c r="E504" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
@@ -10561,7 +10558,7 @@
         <v>633</v>
       </c>
       <c r="E505" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
@@ -10575,7 +10572,7 @@
         <v>629</v>
       </c>
       <c r="E506" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
@@ -10589,7 +10586,7 @@
         <v>621</v>
       </c>
       <c r="E507" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
@@ -10603,7 +10600,7 @@
         <v>625</v>
       </c>
       <c r="E508" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
@@ -10617,7 +10614,7 @@
         <v>619</v>
       </c>
       <c r="E509" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
@@ -10631,7 +10628,7 @@
         <v>627</v>
       </c>
       <c r="E510" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
@@ -10645,7 +10642,7 @@
         <v>625</v>
       </c>
       <c r="E511" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
@@ -10659,7 +10656,7 @@
         <v>627</v>
       </c>
       <c r="E512" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
@@ -10673,7 +10670,7 @@
         <v>629</v>
       </c>
       <c r="E513" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
@@ -10687,7 +10684,7 @@
         <v>619</v>
       </c>
       <c r="E514" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
@@ -10701,7 +10698,7 @@
         <v>621</v>
       </c>
       <c r="E515" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
@@ -10715,7 +10712,7 @@
         <v>619</v>
       </c>
       <c r="E516" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
@@ -10729,7 +10726,7 @@
         <v>623</v>
       </c>
       <c r="E517" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
@@ -10743,7 +10740,7 @@
         <v>625</v>
       </c>
       <c r="E518" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
@@ -10757,7 +10754,7 @@
         <v>627</v>
       </c>
       <c r="E519" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
@@ -10771,7 +10768,7 @@
         <v>629</v>
       </c>
       <c r="E520" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
@@ -10785,7 +10782,7 @@
         <v>327</v>
       </c>
       <c r="E521" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
@@ -10799,7 +10796,7 @@
         <v>627</v>
       </c>
       <c r="E522" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
@@ -10813,7 +10810,7 @@
         <v>629</v>
       </c>
       <c r="E523" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
@@ -10827,7 +10824,7 @@
         <v>633</v>
       </c>
       <c r="E524" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
@@ -10841,7 +10838,7 @@
         <v>625</v>
       </c>
       <c r="E525" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
@@ -10855,7 +10852,7 @@
         <v>333</v>
       </c>
       <c r="E526" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
@@ -10869,7 +10866,7 @@
         <v>633</v>
       </c>
       <c r="E527" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
@@ -10883,7 +10880,7 @@
         <v>637</v>
       </c>
       <c r="E528" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
@@ -10897,7 +10894,7 @@
         <v>633</v>
       </c>
       <c r="E529" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
@@ -10911,7 +10908,7 @@
         <v>621</v>
       </c>
       <c r="E530" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
@@ -10925,7 +10922,7 @@
         <v>633</v>
       </c>
       <c r="E531" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
@@ -10939,7 +10936,7 @@
         <v>619</v>
       </c>
       <c r="E532" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
@@ -10953,7 +10950,7 @@
         <v>641</v>
       </c>
       <c r="E533" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
@@ -10967,7 +10964,7 @@
         <v>633</v>
       </c>
       <c r="E534" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
@@ -10981,7 +10978,7 @@
         <v>621</v>
       </c>
       <c r="E535" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
@@ -10995,7 +10992,7 @@
         <v>627</v>
       </c>
       <c r="E536" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
@@ -11009,7 +11006,7 @@
         <v>333</v>
       </c>
       <c r="E537" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
@@ -11023,7 +11020,7 @@
         <v>625</v>
       </c>
       <c r="E538" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
@@ -11037,7 +11034,7 @@
         <v>633</v>
       </c>
       <c r="E539" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
@@ -11051,7 +11048,7 @@
         <v>633</v>
       </c>
       <c r="E540" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
@@ -11065,7 +11062,7 @@
         <v>633</v>
       </c>
       <c r="E541" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
@@ -11079,7 +11076,7 @@
         <v>629</v>
       </c>
       <c r="E542" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
@@ -11093,7 +11090,7 @@
         <v>625</v>
       </c>
       <c r="E543" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
@@ -11107,7 +11104,7 @@
         <v>627</v>
       </c>
       <c r="E544" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
@@ -11121,7 +11118,7 @@
         <v>619</v>
       </c>
       <c r="E545" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
@@ -11135,7 +11132,7 @@
         <v>627</v>
       </c>
       <c r="E546" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
@@ -11149,7 +11146,7 @@
         <v>619</v>
       </c>
       <c r="E547" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
@@ -11163,7 +11160,7 @@
         <v>627</v>
       </c>
       <c r="E548" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
@@ -11177,7 +11174,7 @@
         <v>641</v>
       </c>
       <c r="E549" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
@@ -11191,7 +11188,7 @@
         <v>619</v>
       </c>
       <c r="E550" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
@@ -11205,7 +11202,7 @@
         <v>627</v>
       </c>
       <c r="E551" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.25">
@@ -11219,7 +11216,7 @@
         <v>625</v>
       </c>
       <c r="E552" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
@@ -11233,7 +11230,7 @@
         <v>627</v>
       </c>
       <c r="E553" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
@@ -11247,7 +11244,7 @@
         <v>621</v>
       </c>
       <c r="E554" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
@@ -11261,7 +11258,7 @@
         <v>625</v>
       </c>
       <c r="E555" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
@@ -11275,7 +11272,7 @@
         <v>625</v>
       </c>
       <c r="E556" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
@@ -11289,7 +11286,7 @@
         <v>627</v>
       </c>
       <c r="E557" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
@@ -11303,7 +11300,7 @@
         <v>327</v>
       </c>
       <c r="E558" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
@@ -11317,7 +11314,7 @@
         <v>629</v>
       </c>
       <c r="E559" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
@@ -11331,7 +11328,7 @@
         <v>625</v>
       </c>
       <c r="E560" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
@@ -11345,7 +11342,7 @@
         <v>621</v>
       </c>
       <c r="E561" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
@@ -11359,7 +11356,7 @@
         <v>625</v>
       </c>
       <c r="E562" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
@@ -11373,7 +11370,7 @@
         <v>633</v>
       </c>
       <c r="E563" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.25">
@@ -11387,7 +11384,7 @@
         <v>625</v>
       </c>
       <c r="E564" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
@@ -11401,7 +11398,7 @@
         <v>621</v>
       </c>
       <c r="E565" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
@@ -11415,7 +11412,7 @@
         <v>621</v>
       </c>
       <c r="E566" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
@@ -11429,7 +11426,7 @@
         <v>627</v>
       </c>
       <c r="E567" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
@@ -11443,7 +11440,7 @@
         <v>621</v>
       </c>
       <c r="E568" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
@@ -11457,7 +11454,7 @@
         <v>627</v>
       </c>
       <c r="E569" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
@@ -11471,7 +11468,7 @@
         <v>625</v>
       </c>
       <c r="E570" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
@@ -11485,7 +11482,7 @@
         <v>621</v>
       </c>
       <c r="E571" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
@@ -11499,7 +11496,7 @@
         <v>627</v>
       </c>
       <c r="E572" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
@@ -11513,7 +11510,7 @@
         <v>619</v>
       </c>
       <c r="E573" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
@@ -11527,7 +11524,7 @@
         <v>625</v>
       </c>
       <c r="E574" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
@@ -11541,7 +11538,7 @@
         <v>629</v>
       </c>
       <c r="E575" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
@@ -11555,7 +11552,7 @@
         <v>627</v>
       </c>
       <c r="E576" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
@@ -11569,7 +11566,7 @@
         <v>629</v>
       </c>
       <c r="E577" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
@@ -11583,7 +11580,7 @@
         <v>627</v>
       </c>
       <c r="E578" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
@@ -11597,7 +11594,7 @@
         <v>627</v>
       </c>
       <c r="E579" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
@@ -11611,7 +11608,7 @@
         <v>625</v>
       </c>
       <c r="E580" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
@@ -11625,7 +11622,7 @@
         <v>621</v>
       </c>
       <c r="E581" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
@@ -11639,7 +11636,7 @@
         <v>629</v>
       </c>
       <c r="E582" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
@@ -11653,7 +11650,7 @@
         <v>625</v>
       </c>
       <c r="E583" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
@@ -11667,7 +11664,7 @@
         <v>678</v>
       </c>
       <c r="E584" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
@@ -11681,7 +11678,7 @@
         <v>625</v>
       </c>
       <c r="E585" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
@@ -11695,7 +11692,7 @@
         <v>633</v>
       </c>
       <c r="E586" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
@@ -11709,7 +11706,7 @@
         <v>625</v>
       </c>
       <c r="E587" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
@@ -11723,7 +11720,7 @@
         <v>633</v>
       </c>
       <c r="E588" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
@@ -11737,7 +11734,7 @@
         <v>625</v>
       </c>
       <c r="E589" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
@@ -11751,7 +11748,7 @@
         <v>627</v>
       </c>
       <c r="E590" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
@@ -11765,7 +11762,7 @@
         <v>625</v>
       </c>
       <c r="E591" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
@@ -11779,7 +11776,7 @@
         <v>327</v>
       </c>
       <c r="E592" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
@@ -11793,7 +11790,7 @@
         <v>619</v>
       </c>
       <c r="E593" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
@@ -11807,7 +11804,7 @@
         <v>633</v>
       </c>
       <c r="E594" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
@@ -11821,7 +11818,7 @@
         <v>629</v>
       </c>
       <c r="E595" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
@@ -11835,7 +11832,7 @@
         <v>621</v>
       </c>
       <c r="E596" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
@@ -11849,7 +11846,7 @@
         <v>641</v>
       </c>
       <c r="E597" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
@@ -11863,7 +11860,7 @@
         <v>627</v>
       </c>
       <c r="E598" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
@@ -11877,7 +11874,7 @@
         <v>629</v>
       </c>
       <c r="E599" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
@@ -11891,7 +11888,7 @@
         <v>621</v>
       </c>
       <c r="E600" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
@@ -11905,7 +11902,7 @@
         <v>629</v>
       </c>
       <c r="E601" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
@@ -11919,7 +11916,7 @@
         <v>629</v>
       </c>
       <c r="E602" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
@@ -11933,7 +11930,7 @@
         <v>627</v>
       </c>
       <c r="E603" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
@@ -11947,7 +11944,7 @@
         <v>625</v>
       </c>
       <c r="E604" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
@@ -11961,7 +11958,7 @@
         <v>619</v>
       </c>
       <c r="E605" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
@@ -11975,7 +11972,7 @@
         <v>633</v>
       </c>
       <c r="E606" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
@@ -11989,7 +11986,7 @@
         <v>629</v>
       </c>
       <c r="E607" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
@@ -12003,7 +12000,7 @@
         <v>627</v>
       </c>
       <c r="E608" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
@@ -12017,7 +12014,7 @@
         <v>627</v>
       </c>
       <c r="E609" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
@@ -12031,7 +12028,7 @@
         <v>633</v>
       </c>
       <c r="E610" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
@@ -12045,7 +12042,7 @@
         <v>627</v>
       </c>
       <c r="E611" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
@@ -12059,7 +12056,7 @@
         <v>625</v>
       </c>
       <c r="E612" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
@@ -12073,7 +12070,7 @@
         <v>327</v>
       </c>
       <c r="E613" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
@@ -12087,7 +12084,7 @@
         <v>701</v>
       </c>
       <c r="E614" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
@@ -12101,7 +12098,7 @@
         <v>701</v>
       </c>
       <c r="E615" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
@@ -12115,7 +12112,7 @@
         <v>619</v>
       </c>
       <c r="E616" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
@@ -12129,7 +12126,7 @@
         <v>627</v>
       </c>
       <c r="E617" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
@@ -12143,7 +12140,7 @@
         <v>625</v>
       </c>
       <c r="E618" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
@@ -12157,7 +12154,7 @@
         <v>633</v>
       </c>
       <c r="E619" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
@@ -12171,7 +12168,7 @@
         <v>627</v>
       </c>
       <c r="E620" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
@@ -12185,7 +12182,7 @@
         <v>619</v>
       </c>
       <c r="E621" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
@@ -12199,7 +12196,7 @@
         <v>627</v>
       </c>
       <c r="E622" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
@@ -12213,7 +12210,7 @@
         <v>633</v>
       </c>
       <c r="E623" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
@@ -12227,7 +12224,7 @@
         <v>627</v>
       </c>
       <c r="E624" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
@@ -12241,7 +12238,7 @@
         <v>625</v>
       </c>
       <c r="E625" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
@@ -12255,7 +12252,7 @@
         <v>619</v>
       </c>
       <c r="E626" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
@@ -12269,7 +12266,7 @@
         <v>619</v>
       </c>
       <c r="E627" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
@@ -12283,7 +12280,7 @@
         <v>621</v>
       </c>
       <c r="E628" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
@@ -12297,7 +12294,7 @@
         <v>621</v>
       </c>
       <c r="E629" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
@@ -12311,7 +12308,7 @@
         <v>625</v>
       </c>
       <c r="E630" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
@@ -12325,7 +12322,7 @@
         <v>627</v>
       </c>
       <c r="E631" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
@@ -12339,7 +12336,7 @@
         <v>621</v>
       </c>
       <c r="E632" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
@@ -12353,7 +12350,7 @@
         <v>625</v>
       </c>
       <c r="E633" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
@@ -12367,7 +12364,7 @@
         <v>629</v>
       </c>
       <c r="E634" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
@@ -12381,7 +12378,7 @@
         <v>619</v>
       </c>
       <c r="E635" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
@@ -12395,7 +12392,7 @@
         <v>621</v>
       </c>
       <c r="E636" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
@@ -12409,7 +12406,7 @@
         <v>327</v>
       </c>
       <c r="E637" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
@@ -12423,7 +12420,7 @@
         <v>327</v>
       </c>
       <c r="E638" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
@@ -12437,7 +12434,7 @@
         <v>627</v>
       </c>
       <c r="E639" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
@@ -12451,7 +12448,7 @@
         <v>333</v>
       </c>
       <c r="E640" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
@@ -12465,7 +12462,7 @@
         <v>625</v>
       </c>
       <c r="E641" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
@@ -12479,7 +12476,7 @@
         <v>625</v>
       </c>
       <c r="E642" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
@@ -12493,7 +12490,7 @@
         <v>629</v>
       </c>
       <c r="E643" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
@@ -12507,7 +12504,7 @@
         <v>625</v>
       </c>
       <c r="E644" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
@@ -12521,7 +12518,7 @@
         <v>629</v>
       </c>
       <c r="E645" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
@@ -12535,7 +12532,7 @@
         <v>627</v>
       </c>
       <c r="E646" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
@@ -12549,7 +12546,7 @@
         <v>625</v>
       </c>
       <c r="E647" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
@@ -12563,7 +12560,7 @@
         <v>629</v>
       </c>
       <c r="E648" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
@@ -12577,7 +12574,7 @@
         <v>621</v>
       </c>
       <c r="E649" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
@@ -12591,7 +12588,7 @@
         <v>627</v>
       </c>
       <c r="E650" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
@@ -12605,7 +12602,7 @@
         <v>629</v>
       </c>
       <c r="E651" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
@@ -12619,7 +12616,7 @@
         <v>623</v>
       </c>
       <c r="E652" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
@@ -12633,7 +12630,7 @@
         <v>625</v>
       </c>
       <c r="E653" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
@@ -12647,7 +12644,7 @@
         <v>619</v>
       </c>
       <c r="E654" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
@@ -12661,7 +12658,7 @@
         <v>627</v>
       </c>
       <c r="E655" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
@@ -12675,7 +12672,7 @@
         <v>633</v>
       </c>
       <c r="E656" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
@@ -12689,7 +12686,7 @@
         <v>629</v>
       </c>
       <c r="E657" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.25">
@@ -12703,7 +12700,7 @@
         <v>629</v>
       </c>
       <c r="E658" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.25">
@@ -12717,7 +12714,7 @@
         <v>633</v>
       </c>
       <c r="E659" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
@@ -12731,7 +12728,7 @@
         <v>633</v>
       </c>
       <c r="E660" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.25">
@@ -12745,7 +12742,7 @@
         <v>327</v>
       </c>
       <c r="E661" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
@@ -12759,7 +12756,7 @@
         <v>633</v>
       </c>
       <c r="E662" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
@@ -12773,7 +12770,7 @@
         <v>627</v>
       </c>
       <c r="E663" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
@@ -12787,7 +12784,7 @@
         <v>333</v>
       </c>
       <c r="E664" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
@@ -12801,7 +12798,7 @@
         <v>633</v>
       </c>
       <c r="E665" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="666" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -12816,7 +12813,7 @@
       </c>
       <c r="D666" s="5"/>
       <c r="E666" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.25">
@@ -12827,10 +12824,10 @@
         <v>204</v>
       </c>
       <c r="C667" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E667" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
@@ -12844,7 +12841,7 @@
         <v>627</v>
       </c>
       <c r="E668" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
@@ -12858,7 +12855,7 @@
         <v>621</v>
       </c>
       <c r="E669" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.25">
@@ -12872,7 +12869,7 @@
         <v>741</v>
       </c>
       <c r="E670" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
@@ -12886,7 +12883,7 @@
         <v>627</v>
       </c>
       <c r="E671" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
@@ -12900,7 +12897,7 @@
         <v>633</v>
       </c>
       <c r="E672" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
@@ -12914,7 +12911,7 @@
         <v>619</v>
       </c>
       <c r="E673" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.25">
@@ -12928,7 +12925,7 @@
         <v>621</v>
       </c>
       <c r="E674" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
@@ -12942,7 +12939,7 @@
         <v>621</v>
       </c>
       <c r="E675" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.25">
@@ -12956,7 +12953,7 @@
         <v>327</v>
       </c>
       <c r="E676" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
@@ -12970,7 +12967,7 @@
         <v>629</v>
       </c>
       <c r="E677" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.25">
@@ -12984,7 +12981,7 @@
         <v>629</v>
       </c>
       <c r="E678" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
@@ -12998,7 +12995,7 @@
         <v>621</v>
       </c>
       <c r="E679" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.25">
@@ -13012,7 +13009,7 @@
         <v>621</v>
       </c>
       <c r="E680" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.25">
@@ -13026,7 +13023,7 @@
         <v>633</v>
       </c>
       <c r="E681" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.25">
@@ -13040,7 +13037,7 @@
         <v>633</v>
       </c>
       <c r="E682" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.25">
@@ -13054,7 +13051,7 @@
         <v>625</v>
       </c>
       <c r="E683" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.25">
@@ -13068,7 +13065,7 @@
         <v>625</v>
       </c>
       <c r="E684" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.25">
@@ -13082,7 +13079,7 @@
         <v>327</v>
       </c>
       <c r="E685" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.25">
@@ -13096,7 +13093,7 @@
         <v>627</v>
       </c>
       <c r="E686" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.25">
@@ -13110,7 +13107,7 @@
         <v>619</v>
       </c>
       <c r="E687" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.25">
@@ -13124,7 +13121,7 @@
         <v>627</v>
       </c>
       <c r="E688" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.25">
@@ -13138,7 +13135,7 @@
         <v>619</v>
       </c>
       <c r="E689" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.25">
@@ -13152,7 +13149,7 @@
         <v>625</v>
       </c>
       <c r="E690" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.25">
@@ -13166,7 +13163,7 @@
         <v>619</v>
       </c>
       <c r="E691" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.25">
@@ -13180,7 +13177,7 @@
         <v>625</v>
       </c>
       <c r="E692" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.25">
@@ -13194,7 +13191,7 @@
         <v>623</v>
       </c>
       <c r="E693" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.25">
@@ -13208,7 +13205,7 @@
         <v>627</v>
       </c>
       <c r="E694" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.25">
@@ -13222,7 +13219,7 @@
         <v>627</v>
       </c>
       <c r="E695" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.25">
@@ -13236,7 +13233,7 @@
         <v>327</v>
       </c>
       <c r="E696" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.25">
@@ -13250,7 +13247,7 @@
         <v>625</v>
       </c>
       <c r="E697" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.25">
@@ -13264,7 +13261,7 @@
         <v>619</v>
       </c>
       <c r="E698" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.25">
@@ -13278,7 +13275,7 @@
         <v>625</v>
       </c>
       <c r="E699" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.25">
@@ -13292,7 +13289,7 @@
         <v>627</v>
       </c>
       <c r="E700" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.25">
@@ -13306,7 +13303,7 @@
         <v>621</v>
       </c>
       <c r="E701" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.25">
@@ -13320,7 +13317,7 @@
         <v>619</v>
       </c>
       <c r="E702" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.25">
@@ -13334,7 +13331,7 @@
         <v>762</v>
       </c>
       <c r="E703" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.25">
@@ -13348,7 +13345,7 @@
         <v>621</v>
       </c>
       <c r="E704" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.25">
@@ -13362,7 +13359,7 @@
         <v>619</v>
       </c>
       <c r="E705" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.25">
@@ -13376,7 +13373,7 @@
         <v>762</v>
       </c>
       <c r="E706" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.25">
@@ -13390,7 +13387,7 @@
         <v>621</v>
       </c>
       <c r="E707" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.25">
@@ -13404,7 +13401,7 @@
         <v>629</v>
       </c>
       <c r="E708" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.25">
@@ -13418,7 +13415,7 @@
         <v>619</v>
       </c>
       <c r="E709" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.25">
@@ -13432,7 +13429,7 @@
         <v>621</v>
       </c>
       <c r="E710" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.25">
@@ -13446,7 +13443,7 @@
         <v>623</v>
       </c>
       <c r="E711" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.25">
@@ -13460,7 +13457,7 @@
         <v>627</v>
       </c>
       <c r="E712" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.25">
@@ -13474,7 +13471,7 @@
         <v>633</v>
       </c>
       <c r="E713" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.25">
@@ -13488,7 +13485,7 @@
         <v>625</v>
       </c>
       <c r="E714" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.25">
@@ -13502,7 +13499,7 @@
         <v>625</v>
       </c>
       <c r="E715" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.25">
@@ -13516,7 +13513,7 @@
         <v>619</v>
       </c>
       <c r="E716" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.25">
@@ -13530,7 +13527,7 @@
         <v>619</v>
       </c>
       <c r="E717" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.25">
@@ -13544,7 +13541,7 @@
         <v>619</v>
       </c>
       <c r="E718" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.25">
@@ -13558,7 +13555,7 @@
         <v>619</v>
       </c>
       <c r="E719" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.25">
@@ -13572,7 +13569,7 @@
         <v>623</v>
       </c>
       <c r="E720" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.25">
@@ -13586,7 +13583,7 @@
         <v>633</v>
       </c>
       <c r="E721" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.25">
@@ -13600,7 +13597,7 @@
         <v>621</v>
       </c>
       <c r="E722" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.25">
@@ -13614,7 +13611,7 @@
         <v>625</v>
       </c>
       <c r="E723" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.25">
@@ -13628,7 +13625,7 @@
         <v>625</v>
       </c>
       <c r="E724" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
@@ -13642,7 +13639,7 @@
         <v>619</v>
       </c>
       <c r="E725" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
@@ -13656,7 +13653,7 @@
         <v>627</v>
       </c>
       <c r="E726" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.25">
@@ -13670,7 +13667,7 @@
         <v>619</v>
       </c>
       <c r="E727" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.25">
@@ -13684,7 +13681,7 @@
         <v>625</v>
       </c>
       <c r="E728" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
@@ -13698,7 +13695,7 @@
         <v>627</v>
       </c>
       <c r="E729" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.25">
@@ -13712,7 +13709,7 @@
         <v>625</v>
       </c>
       <c r="E730" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
@@ -13726,7 +13723,7 @@
         <v>621</v>
       </c>
       <c r="E731" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.25">
@@ -13740,7 +13737,7 @@
         <v>625</v>
       </c>
       <c r="E732" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.25">
@@ -13754,7 +13751,7 @@
         <v>621</v>
       </c>
       <c r="E733" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.25">
@@ -13768,7 +13765,7 @@
         <v>627</v>
       </c>
       <c r="E734" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.25">
@@ -13782,7 +13779,7 @@
         <v>337</v>
       </c>
       <c r="E735" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.25">
@@ -13796,7 +13793,7 @@
         <v>625</v>
       </c>
       <c r="E736" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.25">
@@ -13810,7 +13807,7 @@
         <v>621</v>
       </c>
       <c r="E737" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.25">
@@ -13824,7 +13821,7 @@
         <v>627</v>
       </c>
       <c r="E738" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.25">
@@ -13838,7 +13835,7 @@
         <v>625</v>
       </c>
       <c r="E739" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.25">
@@ -13852,7 +13849,7 @@
         <v>619</v>
       </c>
       <c r="E740" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.25">
@@ -13866,7 +13863,7 @@
         <v>621</v>
       </c>
       <c r="E741" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.25">
@@ -13880,7 +13877,7 @@
         <v>335</v>
       </c>
       <c r="E742" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.25">
@@ -13894,7 +13891,7 @@
         <v>619</v>
       </c>
       <c r="E743" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.25">
@@ -13908,7 +13905,7 @@
         <v>619</v>
       </c>
       <c r="E744" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.25">
@@ -13922,7 +13919,7 @@
         <v>619</v>
       </c>
       <c r="E745" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.25">
@@ -13936,7 +13933,7 @@
         <v>621</v>
       </c>
       <c r="E746" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.25">
@@ -13950,7 +13947,7 @@
         <v>629</v>
       </c>
       <c r="E747" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.25">
@@ -13964,7 +13961,7 @@
         <v>629</v>
       </c>
       <c r="E748" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.25">
@@ -13978,7 +13975,7 @@
         <v>619</v>
       </c>
       <c r="E749" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.25">
@@ -13992,7 +13989,7 @@
         <v>629</v>
       </c>
       <c r="E750" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.25">
@@ -14006,7 +14003,7 @@
         <v>327</v>
       </c>
       <c r="E751" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.25">
@@ -14020,7 +14017,7 @@
         <v>327</v>
       </c>
       <c r="E752" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.25">
@@ -14034,7 +14031,7 @@
         <v>621</v>
       </c>
       <c r="E753" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.25">
@@ -14048,7 +14045,7 @@
         <v>633</v>
       </c>
       <c r="E754" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.25">
@@ -14062,7 +14059,7 @@
         <v>627</v>
       </c>
       <c r="E755" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.25">
@@ -14076,7 +14073,7 @@
         <v>327</v>
       </c>
       <c r="E756" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.25">
@@ -14090,7 +14087,7 @@
         <v>627</v>
       </c>
       <c r="E757" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.25">
@@ -14104,7 +14101,7 @@
         <v>625</v>
       </c>
       <c r="E758" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.25">
@@ -14118,7 +14115,7 @@
         <v>625</v>
       </c>
       <c r="E759" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.25">
@@ -14132,7 +14129,7 @@
         <v>627</v>
       </c>
       <c r="E760" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.25">
@@ -14146,7 +14143,7 @@
         <v>633</v>
       </c>
       <c r="E761" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.25">
@@ -14160,7 +14157,7 @@
         <v>629</v>
       </c>
       <c r="E762" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.25">
@@ -14174,7 +14171,7 @@
         <v>621</v>
       </c>
       <c r="E763" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.25">
@@ -14188,7 +14185,7 @@
         <v>625</v>
       </c>
       <c r="E764" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.25">
@@ -14202,7 +14199,7 @@
         <v>619</v>
       </c>
       <c r="E765" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.25">
@@ -14216,7 +14213,7 @@
         <v>627</v>
       </c>
       <c r="E766" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.25">
@@ -14230,7 +14227,7 @@
         <v>625</v>
       </c>
       <c r="E767" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.25">
@@ -14244,7 +14241,7 @@
         <v>627</v>
       </c>
       <c r="E768" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.25">
@@ -14258,7 +14255,7 @@
         <v>629</v>
       </c>
       <c r="E769" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -14316,7 +14313,7 @@
         <v>297</v>
       </c>
       <c r="E2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G2" t="s">
         <v>194</v>
@@ -14969,7 +14966,7 @@
         <v>552</v>
       </c>
       <c r="E2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -14983,7 +14980,7 @@
         <v>553</v>
       </c>
       <c r="E3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -14997,7 +14994,7 @@
         <v>554</v>
       </c>
       <c r="E4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -15011,7 +15008,7 @@
         <v>555</v>
       </c>
       <c r="E5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -15025,7 +15022,7 @@
         <v>556</v>
       </c>
       <c r="E6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -15039,7 +15036,7 @@
         <v>557</v>
       </c>
       <c r="E7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -15053,7 +15050,7 @@
         <v>558</v>
       </c>
       <c r="E8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -15067,7 +15064,7 @@
         <v>559</v>
       </c>
       <c r="E9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -15081,7 +15078,7 @@
         <v>560</v>
       </c>
       <c r="E10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -15095,7 +15092,7 @@
         <v>561</v>
       </c>
       <c r="E11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -15109,7 +15106,7 @@
         <v>562</v>
       </c>
       <c r="E12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -15123,7 +15120,7 @@
         <v>563</v>
       </c>
       <c r="E13" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -15137,7 +15134,7 @@
         <v>564</v>
       </c>
       <c r="E14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -15151,7 +15148,7 @@
         <v>565</v>
       </c>
       <c r="E15" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -15165,7 +15162,7 @@
         <v>566</v>
       </c>
       <c r="E16" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -15179,7 +15176,7 @@
         <v>567</v>
       </c>
       <c r="E17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -15193,7 +15190,7 @@
         <v>568</v>
       </c>
       <c r="E18" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -15207,7 +15204,7 @@
         <v>569</v>
       </c>
       <c r="E19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -15221,7 +15218,7 @@
         <v>570</v>
       </c>
       <c r="E20" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -15235,7 +15232,7 @@
         <v>571</v>
       </c>
       <c r="E21" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -15249,7 +15246,7 @@
         <v>572</v>
       </c>
       <c r="E22" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -15263,7 +15260,7 @@
         <v>573</v>
       </c>
       <c r="E23" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -15277,7 +15274,7 @@
         <v>574</v>
       </c>
       <c r="E24" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -15291,7 +15288,7 @@
         <v>575</v>
       </c>
       <c r="E25" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -15305,7 +15302,7 @@
         <v>572</v>
       </c>
       <c r="E26" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -15319,7 +15316,7 @@
         <v>576</v>
       </c>
       <c r="E27" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -15333,7 +15330,7 @@
         <v>577</v>
       </c>
       <c r="E28" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -15347,7 +15344,7 @@
         <v>578</v>
       </c>
       <c r="E29" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -15361,7 +15358,7 @@
         <v>579</v>
       </c>
       <c r="E30" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -15375,7 +15372,7 @@
         <v>580</v>
       </c>
       <c r="E31" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -15389,7 +15386,7 @@
         <v>581</v>
       </c>
       <c r="E32" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -15403,7 +15400,7 @@
         <v>582</v>
       </c>
       <c r="E33" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -15417,7 +15414,7 @@
         <v>583</v>
       </c>
       <c r="E34" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -15431,7 +15428,7 @@
         <v>584</v>
       </c>
       <c r="E35" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -15445,7 +15442,7 @@
         <v>585</v>
       </c>
       <c r="E36" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -15459,7 +15456,7 @@
         <v>586</v>
       </c>
       <c r="E37" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -15473,7 +15470,7 @@
         <v>587</v>
       </c>
       <c r="E38" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -15487,7 +15484,7 @@
         <v>588</v>
       </c>
       <c r="E39" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -15501,7 +15498,7 @@
         <v>589</v>
       </c>
       <c r="E40" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -15515,7 +15512,7 @@
         <v>590</v>
       </c>
       <c r="E41" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -15529,7 +15526,7 @@
         <v>591</v>
       </c>
       <c r="E42" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -15543,7 +15540,7 @@
         <v>592</v>
       </c>
       <c r="E43" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -15557,7 +15554,7 @@
         <v>593</v>
       </c>
       <c r="E44" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -15571,7 +15568,7 @@
         <v>594</v>
       </c>
       <c r="E45" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -15585,7 +15582,7 @@
         <v>595</v>
       </c>
       <c r="E46" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -15599,7 +15596,7 @@
         <v>596</v>
       </c>
       <c r="E47" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -15613,7 +15610,7 @@
         <v>597</v>
       </c>
       <c r="E48" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -15627,7 +15624,7 @@
         <v>598</v>
       </c>
       <c r="E49" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -15641,7 +15638,7 @@
         <v>599</v>
       </c>
       <c r="E50" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -15655,7 +15652,7 @@
         <v>600</v>
       </c>
       <c r="E51" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -15669,7 +15666,7 @@
         <v>601</v>
       </c>
       <c r="E52" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -15683,7 +15680,7 @@
         <v>602</v>
       </c>
       <c r="E53" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -15697,7 +15694,7 @@
         <v>575</v>
       </c>
       <c r="E54" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -15711,7 +15708,7 @@
         <v>603</v>
       </c>
       <c r="E55" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -15725,7 +15722,7 @@
         <v>604</v>
       </c>
       <c r="E56" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -15739,7 +15736,7 @@
         <v>605</v>
       </c>
       <c r="E57" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -15753,7 +15750,7 @@
         <v>606</v>
       </c>
       <c r="E58" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -15767,7 +15764,7 @@
         <v>607</v>
       </c>
       <c r="E59" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -15781,7 +15778,7 @@
         <v>608</v>
       </c>
       <c r="E60" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -15795,7 +15792,7 @@
         <v>609</v>
       </c>
       <c r="E61" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -15809,7 +15806,7 @@
         <v>610</v>
       </c>
       <c r="E62" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -15823,7 +15820,7 @@
         <v>611</v>
       </c>
       <c r="E63" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -15837,7 +15834,7 @@
         <v>612</v>
       </c>
       <c r="E64" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -15851,7 +15848,7 @@
         <v>613</v>
       </c>
       <c r="E65" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -15865,7 +15862,7 @@
         <v>614</v>
       </c>
       <c r="E66" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -15879,7 +15876,7 @@
         <v>615</v>
       </c>
       <c r="E67" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -15893,7 +15890,7 @@
         <v>616</v>
       </c>
       <c r="E68" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -15906,7 +15903,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15942,10 +15939,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>818</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>817</v>
+      </c>
+      <c r="C2" t="s">
+        <v>214</v>
       </c>
       <c r="E2" t="s">
         <v>291</v>
@@ -15976,16 +15973,13 @@
         <v>214</v>
       </c>
       <c r="D4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E4" t="s">
         <v>291</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{4C101D73-B6D5-44CC-BED4-E424FF350EC7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16039,7 +16033,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G2" t="s">
         <v>193</v>
@@ -16056,7 +16050,7 @@
         <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G3" t="s">
         <v>192</v>
@@ -16073,7 +16067,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -16087,7 +16081,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -16101,7 +16095,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -16115,7 +16109,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -16129,7 +16123,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -16143,7 +16137,7 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -16157,7 +16151,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -16171,7 +16165,7 @@
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -16185,7 +16179,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -16199,7 +16193,7 @@
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -16213,7 +16207,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -16227,7 +16221,7 @@
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -16241,7 +16235,7 @@
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -16255,7 +16249,7 @@
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -16269,7 +16263,7 @@
         <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -16283,7 +16277,7 @@
         <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -16297,7 +16291,7 @@
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -16311,7 +16305,7 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -16325,7 +16319,7 @@
         <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -16336,7 +16330,7 @@
         <v>300</v>
       </c>
       <c r="E23" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -16350,7 +16344,7 @@
         <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -16361,7 +16355,7 @@
         <v>300</v>
       </c>
       <c r="E25" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -16375,7 +16369,7 @@
         <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -16389,7 +16383,7 @@
         <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -16403,7 +16397,7 @@
         <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -16417,7 +16411,7 @@
         <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -16431,7 +16425,7 @@
         <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -16445,7 +16439,7 @@
         <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -16459,7 +16453,7 @@
         <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -16473,7 +16467,7 @@
         <v>64</v>
       </c>
       <c r="E33" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -16487,7 +16481,7 @@
         <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -16501,7 +16495,7 @@
         <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -16515,7 +16509,7 @@
         <v>162</v>
       </c>
       <c r="E36" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -16529,7 +16523,7 @@
         <v>72</v>
       </c>
       <c r="E37" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -16543,7 +16537,7 @@
         <v>73</v>
       </c>
       <c r="E38" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -16557,7 +16551,7 @@
         <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -16571,7 +16565,7 @@
         <v>79</v>
       </c>
       <c r="E40" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -16585,7 +16579,7 @@
         <v>80</v>
       </c>
       <c r="E41" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -16599,7 +16593,7 @@
         <v>81</v>
       </c>
       <c r="E42" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -16613,7 +16607,7 @@
         <v>82</v>
       </c>
       <c r="E43" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -16627,7 +16621,7 @@
         <v>89</v>
       </c>
       <c r="E44" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -16641,7 +16635,7 @@
         <v>162</v>
       </c>
       <c r="E45" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -16652,10 +16646,10 @@
         <v>300</v>
       </c>
       <c r="C46" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E46" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -16669,7 +16663,7 @@
         <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -16683,7 +16677,7 @@
         <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -16697,7 +16691,7 @@
         <v>92</v>
       </c>
       <c r="E49" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -16711,7 +16705,7 @@
         <v>93</v>
       </c>
       <c r="E50" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -16725,7 +16719,7 @@
         <v>99</v>
       </c>
       <c r="E51" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -16739,7 +16733,7 @@
         <v>100</v>
       </c>
       <c r="E52" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -16753,7 +16747,7 @@
         <v>101</v>
       </c>
       <c r="E53" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -16767,7 +16761,7 @@
         <v>102</v>
       </c>
       <c r="E54" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -16781,7 +16775,7 @@
         <v>103</v>
       </c>
       <c r="E55" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -16795,7 +16789,7 @@
         <v>111</v>
       </c>
       <c r="E56" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -16809,7 +16803,7 @@
         <v>112</v>
       </c>
       <c r="E57" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -16820,10 +16814,10 @@
         <v>300</v>
       </c>
       <c r="C58" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E58" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -16837,7 +16831,7 @@
         <v>113</v>
       </c>
       <c r="E59" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -16851,7 +16845,7 @@
         <v>114</v>
       </c>
       <c r="E60" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -16865,7 +16859,7 @@
         <v>115</v>
       </c>
       <c r="E61" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -16879,7 +16873,7 @@
         <v>162</v>
       </c>
       <c r="E62" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -16893,7 +16887,7 @@
         <v>116</v>
       </c>
       <c r="E63" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -16907,7 +16901,7 @@
         <v>123</v>
       </c>
       <c r="E64" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -16921,7 +16915,7 @@
         <v>124</v>
       </c>
       <c r="E65" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -16932,7 +16926,7 @@
         <v>300</v>
       </c>
       <c r="E66" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -16946,7 +16940,7 @@
         <v>125</v>
       </c>
       <c r="E67" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -16960,7 +16954,7 @@
         <v>126</v>
       </c>
       <c r="E68" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -16974,7 +16968,7 @@
         <v>127</v>
       </c>
       <c r="E69" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -16988,7 +16982,7 @@
         <v>132</v>
       </c>
       <c r="E70" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -17002,7 +16996,7 @@
         <v>133</v>
       </c>
       <c r="E71" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -17016,7 +17010,7 @@
         <v>134</v>
       </c>
       <c r="E72" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -17030,7 +17024,7 @@
         <v>135</v>
       </c>
       <c r="E73" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -17044,7 +17038,7 @@
         <v>142</v>
       </c>
       <c r="E74" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -17058,7 +17052,7 @@
         <v>45</v>
       </c>
       <c r="E75" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -17072,7 +17066,7 @@
         <v>143</v>
       </c>
       <c r="E76" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -17086,7 +17080,7 @@
         <v>162</v>
       </c>
       <c r="E77" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -17100,7 +17094,7 @@
         <v>162</v>
       </c>
       <c r="E78" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -17114,7 +17108,7 @@
         <v>144</v>
       </c>
       <c r="E79" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -17128,7 +17122,7 @@
         <v>145</v>
       </c>
       <c r="E80" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -17142,7 +17136,7 @@
         <v>146</v>
       </c>
       <c r="E81" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -17156,7 +17150,7 @@
         <v>49</v>
       </c>
       <c r="E82" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -17170,7 +17164,7 @@
         <v>147</v>
       </c>
       <c r="E83" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -17184,7 +17178,7 @@
         <v>152</v>
       </c>
       <c r="E84" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -17198,7 +17192,7 @@
         <v>153</v>
       </c>
       <c r="E85" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -17212,7 +17206,7 @@
         <v>154</v>
       </c>
       <c r="E86" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -17226,7 +17220,7 @@
         <v>169</v>
       </c>
       <c r="E87" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -17240,7 +17234,7 @@
         <v>73</v>
       </c>
       <c r="E88" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -17254,7 +17248,7 @@
         <v>170</v>
       </c>
       <c r="E89" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -17268,7 +17262,7 @@
         <v>171</v>
       </c>
       <c r="E90" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -17282,7 +17276,7 @@
         <v>172</v>
       </c>
       <c r="E91" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -17296,7 +17290,7 @@
         <v>162</v>
       </c>
       <c r="E92" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -17310,7 +17304,7 @@
         <v>173</v>
       </c>
       <c r="E93" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -17324,7 +17318,7 @@
         <v>183</v>
       </c>
       <c r="E94" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -17338,7 +17332,7 @@
         <v>184</v>
       </c>
       <c r="E95" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -17352,7 +17346,7 @@
         <v>185</v>
       </c>
       <c r="E96" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -17366,7 +17360,7 @@
         <v>186</v>
       </c>
       <c r="E97" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -17380,7 +17374,7 @@
         <v>49</v>
       </c>
       <c r="E98" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -17394,7 +17388,7 @@
         <v>187</v>
       </c>
       <c r="E99" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -17408,7 +17402,7 @@
         <v>188</v>
       </c>
       <c r="E100" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -17422,7 +17416,7 @@
         <v>57</v>
       </c>
       <c r="E101" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -17436,7 +17430,7 @@
         <v>189</v>
       </c>
       <c r="E102" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -17450,7 +17444,7 @@
         <v>190</v>
       </c>
       <c r="E103" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -17502,13 +17496,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C2" t="s">
         <v>214</v>
       </c>
       <c r="E2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17516,13 +17510,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C3" t="s">
         <v>214</v>
       </c>
       <c r="D3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E3" t="s">
         <v>291</v>
@@ -17588,16 +17582,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C3" t="s">
         <v>214</v>
       </c>
       <c r="D3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
   </sheetData>
@@ -17609,7 +17603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50632D9-A68B-45AC-B2E8-6A44F2626A3B}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
@@ -17646,7 +17640,7 @@
         <v>422</v>
       </c>
       <c r="B2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E2" t="s">
         <v>291</v>
@@ -17660,7 +17654,7 @@
         <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E3" t="s">
         <v>291</v>
@@ -17674,7 +17668,7 @@
         <v>423</v>
       </c>
       <c r="B4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E4" t="s">
         <v>291</v>
@@ -17685,7 +17679,7 @@
         <v>424</v>
       </c>
       <c r="B5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E5" t="s">
         <v>291</v>
@@ -17696,7 +17690,7 @@
         <v>425</v>
       </c>
       <c r="B6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E6" t="s">
         <v>291</v>
@@ -17707,7 +17701,7 @@
         <v>426</v>
       </c>
       <c r="B7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E7" t="s">
         <v>291</v>
@@ -17718,7 +17712,7 @@
         <v>400</v>
       </c>
       <c r="B8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C8" t="s">
         <v>480</v>
@@ -17732,7 +17726,7 @@
         <v>427</v>
       </c>
       <c r="B9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E9" t="s">
         <v>291</v>
@@ -17743,7 +17737,7 @@
         <v>428</v>
       </c>
       <c r="B10" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E10" t="s">
         <v>291</v>
@@ -17754,7 +17748,7 @@
         <v>418</v>
       </c>
       <c r="B11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C11" t="s">
         <v>502</v>
@@ -17768,7 +17762,7 @@
         <v>429</v>
       </c>
       <c r="B12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E12" t="s">
         <v>291</v>
@@ -17779,7 +17773,7 @@
         <v>430</v>
       </c>
       <c r="B13" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E13" t="s">
         <v>291</v>
@@ -17790,7 +17784,7 @@
         <v>401</v>
       </c>
       <c r="B14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C14" t="s">
         <v>481</v>
@@ -17804,7 +17798,7 @@
         <v>309</v>
       </c>
       <c r="B15" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C15" t="s">
         <v>500</v>
@@ -17818,7 +17812,7 @@
         <v>431</v>
       </c>
       <c r="B16" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E16" t="s">
         <v>291</v>
@@ -17829,7 +17823,7 @@
         <v>432</v>
       </c>
       <c r="B17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E17" t="s">
         <v>291</v>
@@ -17840,7 +17834,7 @@
         <v>433</v>
       </c>
       <c r="B18" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E18" t="s">
         <v>291</v>
@@ -17851,7 +17845,7 @@
         <v>419</v>
       </c>
       <c r="B19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C19" t="s">
         <v>497</v>
@@ -17865,7 +17859,7 @@
         <v>403</v>
       </c>
       <c r="B20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C20" t="s">
         <v>483</v>
@@ -17879,7 +17873,7 @@
         <v>434</v>
       </c>
       <c r="B21" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E21" t="s">
         <v>291</v>
@@ -17890,7 +17884,7 @@
         <v>435</v>
       </c>
       <c r="B22" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E22" t="s">
         <v>291</v>
@@ -17901,7 +17895,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E23" t="s">
         <v>291</v>
@@ -17912,7 +17906,7 @@
         <v>417</v>
       </c>
       <c r="B24" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C24" t="s">
         <v>498</v>
@@ -17926,7 +17920,7 @@
         <v>436</v>
       </c>
       <c r="B25" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E25" t="s">
         <v>291</v>
@@ -17937,7 +17931,7 @@
         <v>421</v>
       </c>
       <c r="B26" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C26" t="s">
         <v>501</v>
@@ -17951,7 +17945,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C27" t="s">
         <v>484</v>
@@ -17965,7 +17959,7 @@
         <v>479</v>
       </c>
       <c r="B28" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E28" t="s">
         <v>291</v>
@@ -17976,7 +17970,7 @@
         <v>437</v>
       </c>
       <c r="B29" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E29" t="s">
         <v>291</v>
@@ -17987,7 +17981,7 @@
         <v>406</v>
       </c>
       <c r="B30" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E30" t="s">
         <v>291</v>
@@ -17998,7 +17992,7 @@
         <v>438</v>
       </c>
       <c r="B31" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E31" t="s">
         <v>291</v>
@@ -18009,7 +18003,7 @@
         <v>439</v>
       </c>
       <c r="B32" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E32" t="s">
         <v>291</v>
@@ -18020,7 +18014,7 @@
         <v>405</v>
       </c>
       <c r="B33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C33" t="s">
         <v>486</v>
@@ -18034,7 +18028,7 @@
         <v>440</v>
       </c>
       <c r="B34" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E34" t="s">
         <v>291</v>
@@ -18045,7 +18039,7 @@
         <v>411</v>
       </c>
       <c r="B35" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C35" t="s">
         <v>491</v>
@@ -18059,7 +18053,7 @@
         <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E36" t="s">
         <v>291</v>
@@ -18070,7 +18064,7 @@
         <v>441</v>
       </c>
       <c r="B37" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E37" t="s">
         <v>291</v>
@@ -18081,7 +18075,7 @@
         <v>442</v>
       </c>
       <c r="B38" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E38" t="s">
         <v>291</v>
@@ -18092,7 +18086,7 @@
         <v>443</v>
       </c>
       <c r="B39" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E39" t="s">
         <v>291</v>
@@ -18103,7 +18097,7 @@
         <v>444</v>
       </c>
       <c r="B40" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E40" t="s">
         <v>291</v>
@@ -18114,7 +18108,7 @@
         <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E41" t="s">
         <v>291</v>
@@ -18125,7 +18119,7 @@
         <v>404</v>
       </c>
       <c r="B42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C42" t="s">
         <v>485</v>
@@ -18139,7 +18133,7 @@
         <v>407</v>
       </c>
       <c r="B43" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C43" t="s">
         <v>487</v>
@@ -18153,7 +18147,7 @@
         <v>445</v>
       </c>
       <c r="B44" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E44" t="s">
         <v>291</v>
@@ -18164,7 +18158,7 @@
         <v>446</v>
       </c>
       <c r="B45" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E45" t="s">
         <v>291</v>
@@ -18175,7 +18169,7 @@
         <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E46" t="s">
         <v>291</v>
@@ -18186,7 +18180,7 @@
         <v>447</v>
       </c>
       <c r="B47" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E47" t="s">
         <v>291</v>
@@ -18197,7 +18191,7 @@
         <v>408</v>
       </c>
       <c r="B48" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C48" t="s">
         <v>488</v>
@@ -18211,7 +18205,7 @@
         <v>448</v>
       </c>
       <c r="B49" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E49" t="s">
         <v>291</v>
@@ -18222,7 +18216,7 @@
         <v>413</v>
       </c>
       <c r="B50" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C50" t="s">
         <v>493</v>
@@ -18236,7 +18230,7 @@
         <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E51" t="s">
         <v>291</v>
@@ -18247,7 +18241,7 @@
         <v>412</v>
       </c>
       <c r="B52" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C52" t="s">
         <v>492</v>
@@ -18261,7 +18255,7 @@
         <v>449</v>
       </c>
       <c r="B53" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E53" t="s">
         <v>291</v>
@@ -18272,7 +18266,7 @@
         <v>96</v>
       </c>
       <c r="B54" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E54" t="s">
         <v>291</v>
@@ -18283,7 +18277,7 @@
         <v>450</v>
       </c>
       <c r="B55" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E55" t="s">
         <v>291</v>
@@ -18294,7 +18288,7 @@
         <v>251</v>
       </c>
       <c r="B56" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E56" t="s">
         <v>291</v>
@@ -18305,7 +18299,7 @@
         <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E57" t="s">
         <v>291</v>
@@ -18316,7 +18310,7 @@
         <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E58" t="s">
         <v>291</v>
@@ -18327,7 +18321,7 @@
         <v>451</v>
       </c>
       <c r="B59" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E59" t="s">
         <v>291</v>
@@ -18338,7 +18332,7 @@
         <v>452</v>
       </c>
       <c r="B60" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E60" t="s">
         <v>291</v>
@@ -18349,7 +18343,7 @@
         <v>402</v>
       </c>
       <c r="B61" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C61" t="s">
         <v>482</v>
@@ -18363,7 +18357,7 @@
         <v>453</v>
       </c>
       <c r="B62" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E62" t="s">
         <v>291</v>
@@ -18374,7 +18368,7 @@
         <v>122</v>
       </c>
       <c r="B63" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E63" t="s">
         <v>291</v>
@@ -18385,7 +18379,7 @@
         <v>454</v>
       </c>
       <c r="B64" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E64" t="s">
         <v>291</v>
@@ -18396,7 +18390,7 @@
         <v>455</v>
       </c>
       <c r="B65" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E65" t="s">
         <v>291</v>
@@ -18407,7 +18401,7 @@
         <v>409</v>
       </c>
       <c r="B66" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C66" t="s">
         <v>489</v>
@@ -18421,7 +18415,7 @@
         <v>456</v>
       </c>
       <c r="B67" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E67" t="s">
         <v>291</v>
@@ -18432,7 +18426,7 @@
         <v>415</v>
       </c>
       <c r="B68" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C68" t="s">
         <v>495</v>
@@ -18446,7 +18440,7 @@
         <v>209</v>
       </c>
       <c r="B69" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C69" t="s">
         <v>490</v>
@@ -18460,7 +18454,7 @@
         <v>457</v>
       </c>
       <c r="B70" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E70" t="s">
         <v>291</v>
@@ -18471,7 +18465,7 @@
         <v>416</v>
       </c>
       <c r="B71" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C71" t="s">
         <v>496</v>
@@ -18485,7 +18479,7 @@
         <v>458</v>
       </c>
       <c r="B72" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E72" t="s">
         <v>291</v>
@@ -18496,7 +18490,7 @@
         <v>459</v>
       </c>
       <c r="B73" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E73" t="s">
         <v>291</v>
@@ -18507,7 +18501,7 @@
         <v>460</v>
       </c>
       <c r="B74" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E74" t="s">
         <v>291</v>
@@ -18518,7 +18512,7 @@
         <v>410</v>
       </c>
       <c r="B75" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E75" t="s">
         <v>291</v>
@@ -18529,7 +18523,7 @@
         <v>356</v>
       </c>
       <c r="B76" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E76" t="s">
         <v>291</v>
@@ -18540,7 +18534,7 @@
         <v>139</v>
       </c>
       <c r="B77" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E77" t="s">
         <v>291</v>
@@ -18551,7 +18545,7 @@
         <v>461</v>
       </c>
       <c r="B78" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E78" t="s">
         <v>291</v>
@@ -18562,7 +18556,7 @@
         <v>420</v>
       </c>
       <c r="B79" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C79" t="s">
         <v>499</v>
@@ -18576,7 +18570,7 @@
         <v>462</v>
       </c>
       <c r="B80" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E80" t="s">
         <v>291</v>
@@ -18587,7 +18581,7 @@
         <v>463</v>
       </c>
       <c r="B81" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E81" t="s">
         <v>291</v>
@@ -18598,7 +18592,7 @@
         <v>464</v>
       </c>
       <c r="B82" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E82" t="s">
         <v>291</v>
@@ -18609,7 +18603,7 @@
         <v>465</v>
       </c>
       <c r="B83" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E83" t="s">
         <v>291</v>
@@ -18620,7 +18614,7 @@
         <v>466</v>
       </c>
       <c r="B84" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E84" t="s">
         <v>291</v>
@@ -18631,7 +18625,7 @@
         <v>467</v>
       </c>
       <c r="B85" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E85" t="s">
         <v>291</v>
@@ -18642,7 +18636,7 @@
         <v>468</v>
       </c>
       <c r="B86" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E86" t="s">
         <v>291</v>
@@ -18653,7 +18647,7 @@
         <v>469</v>
       </c>
       <c r="B87" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E87" t="s">
         <v>291</v>
@@ -18664,7 +18658,7 @@
         <v>470</v>
       </c>
       <c r="B88" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E88" t="s">
         <v>291</v>
@@ -18675,7 +18669,7 @@
         <v>471</v>
       </c>
       <c r="B89" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E89" t="s">
         <v>291</v>
@@ -18686,7 +18680,7 @@
         <v>472</v>
       </c>
       <c r="B90" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E90" t="s">
         <v>291</v>
@@ -18697,7 +18691,7 @@
         <v>161</v>
       </c>
       <c r="B91" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E91" t="s">
         <v>291</v>
@@ -18708,7 +18702,7 @@
         <v>473</v>
       </c>
       <c r="B92" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E92" t="s">
         <v>291</v>
@@ -18719,7 +18713,7 @@
         <v>414</v>
       </c>
       <c r="B93" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C93" t="s">
         <v>494</v>
@@ -18733,7 +18727,7 @@
         <v>175</v>
       </c>
       <c r="B94" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E94" t="s">
         <v>291</v>
@@ -18744,7 +18738,7 @@
         <v>176</v>
       </c>
       <c r="B95" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E95" t="s">
         <v>291</v>
@@ -18755,7 +18749,7 @@
         <v>474</v>
       </c>
       <c r="B96" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E96" t="s">
         <v>291</v>
@@ -18766,7 +18760,7 @@
         <v>177</v>
       </c>
       <c r="B97" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E97" t="s">
         <v>291</v>
@@ -18777,7 +18771,7 @@
         <v>475</v>
       </c>
       <c r="B98" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E98" t="s">
         <v>291</v>
@@ -18788,7 +18782,7 @@
         <v>476</v>
       </c>
       <c r="B99" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E99" t="s">
         <v>291</v>
@@ -18799,7 +18793,7 @@
         <v>477</v>
       </c>
       <c r="B100" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E100" t="s">
         <v>291</v>
@@ -18810,7 +18804,7 @@
         <v>478</v>
       </c>
       <c r="B101" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E101" t="s">
         <v>291</v>
@@ -18867,7 +18861,7 @@
         <v>364</v>
       </c>
       <c r="E2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -18881,7 +18875,7 @@
         <v>365</v>
       </c>
       <c r="E3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18895,7 +18889,7 @@
         <v>366</v>
       </c>
       <c r="E4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -18909,7 +18903,7 @@
         <v>367</v>
       </c>
       <c r="E5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -18923,7 +18917,7 @@
         <v>368</v>
       </c>
       <c r="E6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -18937,7 +18931,7 @@
         <v>369</v>
       </c>
       <c r="E7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -18951,7 +18945,7 @@
         <v>370</v>
       </c>
       <c r="E8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -18965,7 +18959,7 @@
         <v>371</v>
       </c>
       <c r="E9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -18979,7 +18973,7 @@
         <v>372</v>
       </c>
       <c r="E10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -18993,7 +18987,7 @@
         <v>373</v>
       </c>
       <c r="E11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -19007,7 +19001,7 @@
         <v>374</v>
       </c>
       <c r="E12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -19021,7 +19015,7 @@
         <v>375</v>
       </c>
       <c r="E13" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -19035,7 +19029,7 @@
         <v>376</v>
       </c>
       <c r="E14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -19049,7 +19043,7 @@
         <v>377</v>
       </c>
       <c r="E15" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -19063,7 +19057,7 @@
         <v>378</v>
       </c>
       <c r="E16" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G16" t="s">
         <v>379</v>
@@ -19080,7 +19074,7 @@
         <v>380</v>
       </c>
       <c r="E17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -19094,7 +19088,7 @@
         <v>381</v>
       </c>
       <c r="E18" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -19108,7 +19102,7 @@
         <v>382</v>
       </c>
       <c r="E19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -19122,7 +19116,7 @@
         <v>383</v>
       </c>
       <c r="E20" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -19136,7 +19130,7 @@
         <v>384</v>
       </c>
       <c r="E21" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -19150,7 +19144,7 @@
         <v>385</v>
       </c>
       <c r="E22" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -19164,7 +19158,7 @@
         <v>386</v>
       </c>
       <c r="E23" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -19178,7 +19172,7 @@
         <v>387</v>
       </c>
       <c r="E24" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -19192,7 +19186,7 @@
         <v>388</v>
       </c>
       <c r="E25" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -19206,7 +19200,7 @@
         <v>389</v>
       </c>
       <c r="E26" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -19220,7 +19214,7 @@
         <v>390</v>
       </c>
       <c r="E27" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -19234,7 +19228,7 @@
         <v>391</v>
       </c>
       <c r="E28" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -19248,7 +19242,7 @@
         <v>392</v>
       </c>
       <c r="E29" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -19262,7 +19256,7 @@
         <v>393</v>
       </c>
       <c r="E30" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -19276,7 +19270,7 @@
         <v>394</v>
       </c>
       <c r="E31" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -19290,7 +19284,7 @@
         <v>395</v>
       </c>
       <c r="E32" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -19304,7 +19298,7 @@
         <v>371</v>
       </c>
       <c r="E33" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -19318,7 +19312,7 @@
         <v>392</v>
       </c>
       <c r="E34" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -19332,7 +19326,7 @@
         <v>396</v>
       </c>
       <c r="E35" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -19346,7 +19340,7 @@
         <v>397</v>
       </c>
       <c r="E36" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G36" t="s">
         <v>399</v>
@@ -19363,7 +19357,7 @@
         <v>398</v>
       </c>
       <c r="E37" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>

--- a/rules/rules_states.xlsx
+++ b/rules/rules_states.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Usbtl-serv-pdc1\Users\nmirasol\My Documents\Misc\sti-rules\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FCF05F-C93B-4015-A5C3-572F882E59E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0AD105-8BEB-423E-A16A-3C7C090FF17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24720" yWindow="2415" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6630" yWindow="2055" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines" sheetId="3" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="UT" sheetId="2" r:id="rId11"/>
     <sheet name="WA" sheetId="5" r:id="rId12"/>
     <sheet name="WI" sheetId="14" r:id="rId13"/>
+    <sheet name="Cities" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4458" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4470" uniqueCount="832">
   <si>
     <t>sti</t>
   </si>
@@ -2800,6 +2801,18 @@
   </si>
   <si>
     <t>LA_HEP_template.pdf</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Appleton</t>
+  </si>
+  <si>
+    <t>WI</t>
   </si>
 </sst>
 </file>
@@ -14610,7 +14623,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14650,6 +14663,65 @@
         <v>214</v>
       </c>
       <c r="E2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D06277F-CA4D-4882-884C-94F8DEB12FD8}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" t="s">
         <v>291</v>
       </c>
     </row>
@@ -17600,7 +17672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50632D9-A68B-45AC-B2E8-6A44F2626A3B}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>

--- a/rules/rules_states.xlsx
+++ b/rules/rules_states.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Usbtl-serv-pdc1\Users\nmirasol\My Documents\Misc\sti-rules\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0AD105-8BEB-423E-A16A-3C7C090FF17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A0FA2C-DCC8-42CE-9521-BBBAE1382CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="2055" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30060" yWindow="1470" windowWidth="17295" windowHeight="11835" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines" sheetId="3" r:id="rId1"/>
@@ -14676,7 +14676,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14687,10 +14687,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>828</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>829</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -14710,10 +14710,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B2" t="s">
         <v>830</v>
-      </c>
-      <c r="B2" t="s">
-        <v>831</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>

--- a/rules/rules_states.xlsx
+++ b/rules/rules_states.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Usbtl-serv-pdc1\Users\nmirasol\My Documents\Misc\sti-rules\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A0FA2C-DCC8-42CE-9521-BBBAE1382CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA56D37-9E7B-43BC-9742-991375DB45D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30060" yWindow="1470" windowWidth="17295" windowHeight="11835" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30060" yWindow="1470" windowWidth="17295" windowHeight="11835" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines" sheetId="3" r:id="rId1"/>
@@ -14623,7 +14623,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14673,56 +14673,58 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D06277F-CA4D-4882-884C-94F8DEB12FD8}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>829</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>831</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" t="s">
         <v>830</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F2" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/rules/rules_states.xlsx
+++ b/rules/rules_states.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Usbtl-serv-pdc1\Users\nmirasol\My Documents\Misc\sti-rules\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA56D37-9E7B-43BC-9742-991375DB45D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EA80A0-E80F-41C9-AAD2-1647E542ED04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30060" yWindow="1470" windowWidth="17295" windowHeight="11835" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4470" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4470" uniqueCount="833">
   <si>
     <t>sti</t>
   </si>
@@ -2813,6 +2813,9 @@
   </si>
   <si>
     <t>WI</t>
+  </si>
+  <si>
+    <t>920-832-5853</t>
   </si>
 </sst>
 </file>
@@ -14676,13 +14679,14 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -14718,7 +14722,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>832</v>
       </c>
       <c r="E2" t="s">
         <v>291</v>

--- a/rules/rules_states.xlsx
+++ b/rules/rules_states.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Usbtl-serv-pdc1\Users\nmirasol\My Documents\Misc\sti-rules\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EA80A0-E80F-41C9-AAD2-1647E542ED04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4786BE64-F959-49E4-91B1-548973027E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30060" yWindow="1470" windowWidth="17295" windowHeight="11835" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30060" yWindow="1470" windowWidth="17295" windowHeight="11835" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines" sheetId="3" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4470" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4470" uniqueCount="834">
   <si>
     <t>sti</t>
   </si>
@@ -2816,6 +2816,9 @@
   </si>
   <si>
     <t>920-832-5853</t>
+  </si>
+  <si>
+    <t>214-819-2825</t>
   </si>
 </sst>
 </file>
@@ -3486,8 +3489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8813E460-3269-433D-A176-13509591D858}">
   <dimension ref="A1:G769"/>
   <sheetViews>
-    <sheetView topLeftCell="A746" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A565" workbookViewId="0">
+      <selection activeCell="F581" sqref="F581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4310,7 +4313,7 @@
         <v>617</v>
       </c>
       <c r="C58" t="s">
-        <v>624</v>
+        <v>833</v>
       </c>
       <c r="E58" t="s">
         <v>823</v>
@@ -7894,7 +7897,7 @@
         <v>815</v>
       </c>
       <c r="C314" t="s">
-        <v>624</v>
+        <v>833</v>
       </c>
       <c r="E314" t="s">
         <v>823</v>
@@ -11478,7 +11481,7 @@
         <v>204</v>
       </c>
       <c r="C570" t="s">
-        <v>624</v>
+        <v>833</v>
       </c>
       <c r="E570" t="s">
         <v>823</v>
@@ -14678,7 +14681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D06277F-CA4D-4882-884C-94F8DEB12FD8}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
